--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail14 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>3.366692231647163e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.01146508379071799</v>
+        <v>1.130435667102256e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.210780485963318</v>
+        <v>7.312106321392657e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.130435667102256e-06</v>
+        <v>-0.04034261606039387</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.312106321392657e-06</v>
+        <v>0.07051906687127063</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04034261606039387</v>
+        <v>0.006597828722908023</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.07051906687127063</v>
+        <v>1.918716683540581</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.006597828722908023</v>
+        <v>3.380511644456615</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.942581628464494</v>
+        <v>4.874364984096504</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.380511644456615</v>
+        <v>2.522306141012066e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.874364984096504</v>
+        <v>1987215304.325581</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.522306141012066e-16</v>
+        <v>6.078459676068915e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1987215304.325581</v>
+        <v>996.0649165418783</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.078459676068915e-08</v>
+        <v>9.461953274933848e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>996.0649165418783</v>
+        <v>7.538951717925017</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.461953274933848e-05</v>
+        <v>1.667222113603129</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.538951717925017</v>
+        <v>0.005377776177590577</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.667222113603129</v>
+        <v>4.160872497682061</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005377776177590577</v>
+        <v>0.9594232898855284</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.160872497682061</v>
+        <v>1.171564206413849</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9594232898855284</v>
+        <v>207</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.171564206413849</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.472489098639821</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>3.435510160098968e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.03964336456105359</v>
+        <v>1.15155865418059e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.203587776504876</v>
+        <v>7.297778348424685e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.15155865418059e-06</v>
+        <v>-0.04389097066443336</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.297778348424685e-06</v>
+        <v>0.06171442387278928</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04389097066443336</v>
+        <v>0.005732196143919068</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.06171442387278928</v>
+        <v>1.921807903229662</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.005732196143919068</v>
+        <v>2.76882197630154</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.94470796859245</v>
+        <v>4.905495364682088</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.76882197630154</v>
+        <v>2.490394499729401e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.905495364682088</v>
+        <v>2061825652.789607</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.490394499729401e-16</v>
+        <v>5.881998976869162e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2061825652.789607</v>
+        <v>1058.697837369923</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.881998976869162e-08</v>
+        <v>9.279433501637219e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1058.697837369923</v>
+        <v>7.722654245857206</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.279433501637219e-05</v>
+        <v>1.914112230530806</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.722654245857206</v>
+        <v>0.00553419740601803</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.914112230530806</v>
+        <v>4.401920088508908</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00553419740601803</v>
+        <v>0.9593448713822821</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.401920088508908</v>
+        <v>1.178784411322279</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9593448713822821</v>
+        <v>217</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.178784411322279</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>217</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.879450309309433</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>3.491973726434732e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.07012117323902974</v>
+        <v>1.173549003587709e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.179901480001013</v>
+        <v>7.281895791627739e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.173549003587709e-06</v>
+        <v>-0.04773259357375079</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.281895791627739e-06</v>
+        <v>0.05101468665766772</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04773259357375079</v>
+        <v>0.0048783851502846</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.05101468665766772</v>
+        <v>1.922022544818694</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0048783851502846</v>
+        <v>2.700447081424951</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.940359094780284</v>
+        <v>5.292538710828321</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.700447081424951</v>
+        <v>2.139468030791219e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.292538710828321</v>
+        <v>2406697568.739434</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.139468030791219e-16</v>
+        <v>5.040141357834112e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2406697568.739434</v>
+        <v>1239.221215255829</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.040141357834112e-08</v>
+        <v>9.445218050005748e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1239.221215255829</v>
+        <v>8.040974630330568</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.445218050005748e-05</v>
+        <v>1.677617896178309</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.040974630330568</v>
+        <v>0.006107020420568298</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.677617896178309</v>
+        <v>4.413811009053166</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006107020420568298</v>
+        <v>0.96083594529634</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.413811009053166</v>
+        <v>1.164344575673686</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.96083594529634</v>
+        <v>227</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.164344575673686</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>227</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.291238493474255</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>3.53327496402699e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.09785189687355092</v>
+        <v>1.195900906894182e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.143413994690012</v>
+        <v>7.264498565611781e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.195900906894182e-06</v>
+        <v>-0.0511863222177648</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.264498565611781e-06</v>
+        <v>0.04108189114276688</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0511863222177648</v>
+        <v>0.004306054387287765</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.04108189114276688</v>
+        <v>1.923836683844519</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004306054387287765</v>
+        <v>3.205194614964287</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.944860813086415</v>
+        <v>5.930098329391272</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.205194614964287</v>
+        <v>1.704158945335425e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.930098329391272</v>
+        <v>2994635043.676633</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.704158945335425e-16</v>
+        <v>4.044935949908931e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2994635043.676633</v>
+        <v>1528.262312855174</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.044935949908931e-08</v>
+        <v>9.471922111981534e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1528.262312855174</v>
+        <v>8.360098981499794</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.471922111981534e-05</v>
+        <v>1.543397497593389</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.360098981499794</v>
+        <v>0.006620045234836902</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.543397497593389</v>
+        <v>4.44730132049359</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006620045234836902</v>
+        <v>0.9605720544173547</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.44730132049359</v>
+        <v>1.108263818850477</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9605720544173547</v>
+        <v>268</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.108263818850477</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.731914995348946</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>3.558019485868898e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.118114595039899</v>
+        <v>1.218102380276591e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.102384007390387</v>
+        <v>7.245739382559607e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.218102380276591e-06</v>
+        <v>-0.05455772044346828</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.245739382559607e-06</v>
+        <v>0.03004408576915101</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05455772044346828</v>
+        <v>0.003877807316213404</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.03004408576915101</v>
+        <v>1.929083732845458</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.003877807316213404</v>
+        <v>2.799693472800036</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.949691352312532</v>
+        <v>6.67776964674349</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.799693472800036</v>
+        <v>1.30683610383423e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.67776964674349</v>
+        <v>3903035106.224134</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.30683610383423e-16</v>
+        <v>3.108447784952328e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3903035106.224134</v>
+        <v>1990.79269915855</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.108447784952328e-08</v>
+        <v>8.817424022799903e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1990.79269915855</v>
+        <v>8.145692164179136</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.817424022799903e-05</v>
+        <v>1.513909345123292</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.145692164179136</v>
+        <v>0.005850563713379607</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.513909345123292</v>
+        <v>4.656735834532617</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005850563713379607</v>
+        <v>0.9623634471307476</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.656735834532617</v>
+        <v>1.097506792232814</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9623634471307476</v>
+        <v>313</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.097506792232814</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.017770388422999</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>3.564915932444002e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1262406231167659</v>
+        <v>1.239829296657558e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.067950468231827</v>
+        <v>7.225741766771695e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.239829296657558e-06</v>
+        <v>-0.05748765348041266</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.225741766771695e-06</v>
+        <v>0.01916142224920082</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05748765348041266</v>
+        <v>0.003671830205473188</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.01916142224920082</v>
+        <v>1.932743056078681</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003671830205473188</v>
+        <v>3.529386427951484</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.955546604928019</v>
+        <v>6.257777548822765</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.529386427951484</v>
+        <v>1.2072397044172e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.257777548822765</v>
+        <v>4167781559.87695</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.2072397044172e-16</v>
+        <v>2.914502613607436e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>4167781559.87695</v>
+        <v>2097.024034129538</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.914502613607436e-08</v>
+        <v>8.140831581688884e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2097.024034129538</v>
+        <v>8.254706273136078</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.140831581688884e-05</v>
+        <v>1.588741754249618</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.254706273136078</v>
+        <v>0.005547176939601749</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.588741754249618</v>
+        <v>4.939231662595846</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005547176939601749</v>
+        <v>0.9622177311289732</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.939231662595846</v>
+        <v>1.043239332703123</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9622177311289732</v>
+        <v>298</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.043239332703123</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>298</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>4.623067900086971</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>3.558643175597997e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1227643938921488</v>
+        <v>1.260223377609083e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.046745621747047</v>
+        <v>7.204946819196924e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.260223377609083e-06</v>
+        <v>-0.05901845731901721</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.204946819196924e-06</v>
+        <v>0.01534308975062691</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05901845731901721</v>
+        <v>0.003718825430738748</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.01534308975062691</v>
+        <v>1.924647425580794</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.003718825430738748</v>
+        <v>3.068489561761148</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.950920450448062</v>
+        <v>6.203554370354717</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.068489561761148</v>
+        <v>1.228436087508943e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.203554370354717</v>
+        <v>3938008015.405233</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.228436087508943e-16</v>
+        <v>3.063120749618329e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>3938008015.405233</v>
+        <v>1905.047275948709</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.063120749618329e-08</v>
+        <v>7.233072158979202e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1905.047275948709</v>
+        <v>7.401076138164036</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>7.233072158979202e-05</v>
+        <v>1.603429953781665</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.401076138164036</v>
+        <v>0.00396198239820033</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.603429953781665</v>
+        <v>5.076929307875923</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.00396198239820033</v>
+        <v>0.962064429696623</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.076929307875923</v>
+        <v>1.042715464489727</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.962064429696623</v>
+        <v>276</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.042715464489727</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>276</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.727494033724356</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>3.546408126817723e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1130830614301571</v>
+        <v>1.26891286504174e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.035450011322146</v>
+        <v>7.183853703286138e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.26891286504174e-06</v>
+        <v>-0.05963200885848369</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.183853703286138e-06</v>
+        <v>0.01488405647139333</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05963200885848369</v>
+        <v>0.003777688635709299</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.01488405647139333</v>
+        <v>1.927768477933147</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.003777688635709299</v>
+        <v>2.827148206410809</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.954572080757497</v>
+        <v>5.899479115885842</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.827148206410809</v>
+        <v>1.358333513030502e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.899479115885842</v>
+        <v>3547761240.436111</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.358333513030502e-16</v>
+        <v>3.401568013315014e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>3547761240.436111</v>
+        <v>1709.68139327777</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.401568013315014e-08</v>
+        <v>6.510371761930875e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1709.68139327777</v>
+        <v>6.698645193192194</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>6.510371761930875e-05</v>
+        <v>1.482554180850247</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.698645193192194</v>
+        <v>0.002921324083766829</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.482554180850247</v>
+        <v>5.199408732437969</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.002921324083766829</v>
+        <v>0.9636886475700231</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.199408732437969</v>
+        <v>0.9747368070664122</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9636886475700231</v>
+        <v>253</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9747368070664122</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>253</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>5.040889769439378</v>
       </c>
     </row>
@@ -1311,72 +1251,66 @@
         <v>3.531093930580481e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1001587260703551</v>
+        <v>1.272302410178028e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.031725363408862</v>
+        <v>7.162678160572885e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.272302410178028e-06</v>
+        <v>-0.06005065309621303</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.162678160572885e-06</v>
+        <v>0.01481250863547543</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06005065309621303</v>
+        <v>0.003825665418222123</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.01481250863547543</v>
+        <v>1.922816002045139</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003825665418222123</v>
+        <v>2.986170796908481</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.947623382938915</v>
+        <v>6.215332996007904</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.986170796908481</v>
+        <v>1.107040886195821e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.215332996007904</v>
+        <v>4291548745.576571</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.107040886195821e-16</v>
+        <v>2.80802802890835e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4291548745.576571</v>
+        <v>2038.88044507155</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.80802802890835e-08</v>
+        <v>5.864983076033789e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>2038.88044507155</v>
+        <v>7.70178490235893</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>5.864983076033789e-05</v>
+        <v>1.312729072054554</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.70178490235893</v>
+        <v>0.003478960789639181</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.312729072054554</v>
+        <v>5.337589638252674</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.003478960789639181</v>
+        <v>0.963104188011205</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.337589638252674</v>
+        <v>1.0386315758786</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.963104188011205</v>
+        <v>266</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.0386315758786</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>266</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>5.833501871748632</v>
       </c>
     </row>
@@ -1391,72 +1325,66 @@
         <v>3.512931895684695e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.0834977002962979</v>
+        <v>1.278017821586143e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.036698118856577</v>
+        <v>7.141425998028074e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.278017821586143e-06</v>
+        <v>-0.06063274854293209</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.141425998028074e-06</v>
+        <v>0.01465779994482467</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06063274854293209</v>
+        <v>0.003891312129725496</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.01465779994482467</v>
+        <v>1.918963450196193</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003891312129725496</v>
+        <v>3.319762290242356</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.943552215021654</v>
+        <v>6.611197014952547</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.319762290242356</v>
+        <v>1.233961957153731e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.611197014952547</v>
+        <v>3923149925.710474</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.233961957153731e-16</v>
+        <v>3.072747252536836e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>3923149925.710474</v>
+        <v>1899.203846761465</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.072747252536836e-08</v>
+        <v>5.620581468306602e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1899.203846761465</v>
+        <v>8.264355039511484</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>5.620581468306602e-05</v>
+        <v>1.723800588068042</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.264355039511484</v>
+        <v>0.003838832649432837</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.723800588068042</v>
+        <v>5.663846970392277</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.003838832649432837</v>
+        <v>0.963739468317915</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.663846970392277</v>
+        <v>1.022381187097925</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.963739468317915</v>
+        <v>243</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.022381187097925</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>243</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>6.275554682649561</v>
       </c>
     </row>
@@ -1471,72 +1399,66 @@
         <v>3.492837795014656e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.06300491226920756</v>
+        <v>1.276932800126779e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.050575237022324</v>
+        <v>7.120119731336022e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.276932800126779e-06</v>
+        <v>-0.06093145446592873</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.120119731336022e-06</v>
+        <v>0.0147117315859836</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06093145446592873</v>
+        <v>0.00392901119481097</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0147117315859836</v>
+        <v>1.916309784852797</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.00392901119481097</v>
+        <v>3.217987217090754</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.94222630276899</v>
+        <v>6.585395530991293</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.217987217090754</v>
+        <v>1.243650189243671e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.585395530991293</v>
+        <v>3935649890.672612</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.243650189243671e-16</v>
+        <v>3.06327591422127e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3935649890.672612</v>
+        <v>1926.332069930537</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.06327591422127e-08</v>
+        <v>5.665631590666172e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1926.332069930537</v>
+        <v>6.344817743711652</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>5.665631590666172e-05</v>
+        <v>1.875499811721975</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.344817743711652</v>
+        <v>0.002280797003818786</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.875499811721975</v>
+        <v>5.622170112984171</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.002280797003818786</v>
+        <v>0.9636098236376591</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5.622170112984171</v>
+        <v>1.067098993540197</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9636098236376591</v>
+        <v>254</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.067098993540197</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>254</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>5.727703630449023</v>
       </c>
     </row>
@@ -1551,72 +1473,66 @@
         <v>3.473298987464843e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.04161856292987371</v>
+        <v>1.267915108657323e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.069454076589336</v>
+        <v>7.098906272581009e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.267915108657323e-06</v>
+        <v>-0.06084224846660528</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.098906272581009e-06</v>
+        <v>0.01458975382601017</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06084224846660528</v>
+        <v>0.003914451980629198</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.01458975382601017</v>
+        <v>1.92180316949576</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003914451980629198</v>
+        <v>3.115628438580277</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.942407988492124</v>
+        <v>6.052199345195545</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.115628438580277</v>
+        <v>1.138178711650846e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>6.052199345195545</v>
+        <v>4321665292.875616</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.138178711650846e-16</v>
+        <v>2.799105359977722e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>4321665292.875616</v>
+        <v>2125.752580848369</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.799105359977722e-08</v>
+        <v>6.161384156094701e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2125.752580848369</v>
+        <v>6.245666854609524</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>6.161384156094701e-05</v>
+        <v>1.40077347111837</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.245666854609524</v>
+        <v>0.002403454571175794</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.40077347111837</v>
+        <v>5.238259112073209</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.002403454571175794</v>
+        <v>0.9652523439970281</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.238259112073209</v>
+        <v>1.064212559429509</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9652523439970281</v>
+        <v>280</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.064212559429509</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>280</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>4.862513874585842</v>
       </c>
     </row>
@@ -1631,72 +1547,66 @@
         <v>3.455647968468932e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.02141900195776278</v>
+        <v>1.255881468668432e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.090511635646557</v>
+        <v>7.07787195895087e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.255881468668432e-06</v>
+        <v>-0.06057275751554705</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.07787195895087e-06</v>
+        <v>0.01426839153094522</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06057275751554705</v>
+        <v>0.003872427729615984</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01426839153094522</v>
+        <v>1.920834428674782</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003872427729615984</v>
+        <v>3.387914487860616</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.941782215777082</v>
+        <v>6.116615525652889</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.387914487860616</v>
+        <v>1.126568874485847e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.116615525652889</v>
+        <v>4384191586.502995</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.126568874485847e-16</v>
+        <v>2.758003602060896e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>4384191586.502995</v>
+        <v>2165.393340021011</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.758003602060896e-08</v>
+        <v>7.025326305118818e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2165.393340021011</v>
+        <v>6.676144672680284</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>7.025326305118818e-05</v>
+        <v>1.42485907789242</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.676144672680284</v>
+        <v>0.003131251702414951</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.42485907789242</v>
+        <v>4.829305254350518</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.003131251702414951</v>
+        <v>0.9649389174707648</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.829305254350518</v>
+        <v>1.022182758748789</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9649389174707648</v>
+        <v>267</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.022182758748789</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>267</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>4.097198742164226</v>
       </c>
     </row>
@@ -1711,72 +1621,66 @@
         <v>3.440261789913819e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.003426667456140674</v>
+        <v>1.242928491215578e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.112408970230993</v>
+        <v>7.05704951371192e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.242928491215578e-06</v>
+        <v>-0.06021656603464805</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.05704951371192e-06</v>
+        <v>0.01382294747423814</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06021656603464805</v>
+        <v>0.003816833511977654</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.01382294747423814</v>
+        <v>1.923492383423355</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003816833511977654</v>
+        <v>3.306735464404249</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.942056716974242</v>
+        <v>5.96606126359812</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.306735464404249</v>
+        <v>1.184144483908753e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.96606126359812</v>
+        <v>4141814617.49364</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.184144483908753e-16</v>
+        <v>2.912753335487233e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>4141814617.49364</v>
+        <v>2031.355850536355</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.912753335487233e-08</v>
+        <v>7.077020939712808e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2031.355850536355</v>
+        <v>6.699607803852972</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>7.077020939712808e-05</v>
+        <v>1.371335718256826</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.699607803852972</v>
+        <v>0.00317650278295657</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.371335718256826</v>
+        <v>4.752815791878256</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00317650278295657</v>
+        <v>0.9659621099097774</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.752815791878256</v>
+        <v>1.064238709920945</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9659621099097774</v>
+        <v>268</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.064238709920945</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>4.020123806741241</v>
       </c>
     </row>
@@ -1791,72 +1695,66 @@
         <v>3.427722396413965e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.01212251338070021</v>
+        <v>1.231829559985075e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.133582822891582</v>
+        <v>7.03642985165191e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.231829559985075e-06</v>
+        <v>-0.05989756873193537</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.03642985165191e-06</v>
+        <v>0.0132699028364194</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05989756873193537</v>
+        <v>0.003763490984818021</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0132699028364194</v>
+        <v>1.921905302004958</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003763490984818021</v>
+        <v>3.274108683957778</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.942569630814673</v>
+        <v>5.366763857591359</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.274108683957778</v>
+        <v>1.463373347336894e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.366763857591359</v>
+        <v>3300984344.233296</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.463373347336894e-16</v>
+        <v>3.642299340302934e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>3300984344.233296</v>
+        <v>1594.564422697337</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.642299340302934e-08</v>
+        <v>6.372612413217739e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1594.564422697337</v>
+        <v>6.415137321358504</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>6.372612413217739e-05</v>
+        <v>1.478094907812601</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.415137321358504</v>
+        <v>0.002622584074657332</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.478094907812601</v>
+        <v>5.087426690705076</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.002622584074657332</v>
+        <v>0.9666768568084558</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>5.087426690705076</v>
+        <v>1.063822100124728</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9666768568084558</v>
+        <v>239</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.063822100124728</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>239</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>4.501461932472399</v>
       </c>
     </row>
@@ -1871,72 +1769,66 @@
         <v>3.41854726410057e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.0254621565912931</v>
+        <v>1.222550901069381e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.152713081616895</v>
+        <v>7.015978211431584e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.222550901069381e-06</v>
+        <v>-0.05960595937979515</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.015978211431584e-06</v>
+        <v>0.01273128660412704</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05960595937979515</v>
+        <v>0.0037146444122772</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.01273128660412704</v>
+        <v>1.922907482634043</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0037146444122772</v>
+        <v>3.127568952535422</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.944468576743021</v>
+        <v>5.367075221918392</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.127568952535422</v>
+        <v>1.463203560619963e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.367075221918392</v>
+        <v>3290050640.131094</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.463203560619963e-16</v>
+        <v>3.658846011746574e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>3290050640.131094</v>
+        <v>1583.834922133526</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.658846011746574e-08</v>
+        <v>7.050627552717683e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1583.834922133526</v>
+        <v>7.960514328166353</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>7.050627552717683e-05</v>
+        <v>1.692801226354534</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.960514328166353</v>
+        <v>0.004467967758839496</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.692801226354534</v>
+        <v>5.023288343122625</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.004467967758839496</v>
+        <v>0.9672791795347214</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>5.023288343122625</v>
+        <v>1.090355629365434</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9672791795347214</v>
+        <v>244</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.090355629365434</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>244</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>4.246027910911939</v>
       </c>
     </row>
@@ -1951,72 +1843,66 @@
         <v>3.412759896821022e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.03656768530863518</v>
+        <v>1.213711310408486e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.1692567885164</v>
+        <v>6.995676098533587e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.213711310408486e-06</v>
+        <v>-0.05927527193183568</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.995676098533587e-06</v>
+        <v>0.01218796760681047</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05927527193183568</v>
+        <v>0.003661805462425894</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.01218796760681047</v>
+        <v>1.925785223432946</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003661805462425894</v>
+        <v>3.123576789603465</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.946664179318276</v>
+        <v>5.429191653260838</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.123576789603465</v>
+        <v>1.429913505647259e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.429191653260838</v>
+        <v>3288086219.227807</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.429913505647259e-16</v>
+        <v>3.643631558876518e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>3288086219.227807</v>
+        <v>1545.952557401361</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.643631558876518e-08</v>
+        <v>8.160067720308151e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1545.952557401361</v>
+        <v>8.427268241237423</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>8.160067720308151e-05</v>
+        <v>1.645870159367475</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.427268241237423</v>
+        <v>0.005795186254981214</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.645870159367475</v>
+        <v>4.597724654288567</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.005795186254981214</v>
+        <v>0.9659335192561299</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.597724654288567</v>
+        <v>1.094051858146365</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9659335192561299</v>
+        <v>257</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.094051858146365</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>257</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>3.348756778405983</v>
       </c>
     </row>
@@ -2031,72 +1917,66 @@
         <v>3.41021505423626e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.04519721499969923</v>
+        <v>1.205142919999852e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.182925404913318</v>
+        <v>6.975519159679457e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.205142919999852e-06</v>
+        <v>-0.05890065739025289</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.975519159679457e-06</v>
+        <v>0.01165303118022213</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05890065739025289</v>
+        <v>0.003604796739796227</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.01165303118022213</v>
+        <v>1.920074174810952</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003604796739796227</v>
+        <v>3.511795388677664</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.940916648943051</v>
+        <v>5.554635678192351</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.511795388677664</v>
+        <v>1.366057420936363e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.554635678192351</v>
+        <v>3414003367.930947</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.366057420936363e-16</v>
+        <v>3.510336148572705e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>3414003367.930947</v>
+        <v>1592.197161394156</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.510336148572705e-08</v>
+        <v>8.507393313354472e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1592.197161394156</v>
+        <v>7.557808848569875</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>8.507393313354472e-05</v>
+        <v>1.620088128283727</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.557808848569875</v>
+        <v>0.004859463435955407</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.620088128283727</v>
+        <v>4.275722898113709</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.004859463435955407</v>
+        <v>0.9653384104264742</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.275722898113709</v>
+        <v>1.079357779334788</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9653384104264742</v>
+        <v>273</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.079357779334788</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>273</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>2.703553700791186</v>
       </c>
     </row>
@@ -2111,72 +1991,66 @@
         <v>3.410726736626507e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.05115890016947103</v>
+        <v>1.196873366584132e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.193529868858108</v>
+        <v>6.955503445983466e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.196873366584132e-06</v>
+        <v>-0.05848758182179382</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.955503445983466e-06</v>
+        <v>0.01112564107365489</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05848758182179382</v>
+        <v>0.003544319328134818</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.01112564107365489</v>
+        <v>1.919552201307878</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003544319328134818</v>
+        <v>3.218387224772447</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.942006468560637</v>
+        <v>5.557015202162704</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.218387224772447</v>
+        <v>1.364887774890577e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.557015202162704</v>
+        <v>3438603839.270244</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.364887774890577e-16</v>
+        <v>3.491044747539876e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>3438603839.270244</v>
+        <v>1613.842808681544</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.491044747539876e-08</v>
+        <v>8.584166867738001e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1613.842808681544</v>
+        <v>6.995732004631754</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>8.584166867738001e-05</v>
+        <v>1.588647000790412</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.995732004631754</v>
+        <v>0.004201114123044509</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.588647000790412</v>
+        <v>4.256171069627812</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.004201114123044509</v>
+        <v>0.9657945606392465</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.256171069627812</v>
+        <v>1.077188845207209</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9657945606392465</v>
+        <v>282</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.077188845207209</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>282</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>2.629876285866405</v>
       </c>
     </row>
@@ -2191,72 +2065,66 @@
         <v>3.414029802681474e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.05446295316678351</v>
+        <v>1.189794379298917e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.201038725008555</v>
+        <v>6.935616900567216e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.189794379298917e-06</v>
+        <v>-0.05808506491063054</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.935616900567216e-06</v>
+        <v>0.01069924788890692</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05808506491063054</v>
+        <v>0.003488148140484722</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01069924788890692</v>
+        <v>1.910829245671613</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003488148140484722</v>
+        <v>3.198312283060379</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.942593012293456</v>
+        <v>5.515698219134729</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.198312283060379</v>
+        <v>1.385412559693974e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.515698219134729</v>
+        <v>3559485543.345792</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.385412559693974e-16</v>
+        <v>3.365551997081813e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>3559485543.345792</v>
+        <v>1755.309031207234</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.365551997081813e-08</v>
+        <v>8.007844057931662e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1755.309031207234</v>
+        <v>6.797769895571514</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.007844057931662e-05</v>
+        <v>1.684697679893396</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.797769895571514</v>
+        <v>0.003700398757971489</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.684697679893396</v>
+        <v>4.54945715753563</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.003700398757971489</v>
+        <v>0.9652037332716797</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.54945715753563</v>
+        <v>1.036749415829822</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9652037332716797</v>
+        <v>266</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.036749415829822</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>266</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>3.154571435554931</v>
       </c>
     </row>
@@ -2271,72 +2139,66 @@
         <v>3.41953811169372e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.05542236861216154</v>
+        <v>1.18454057338165e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.205924041907247</v>
+        <v>6.915833520271264e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.18454057338165e-06</v>
+        <v>-0.0577347395763693</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.915833520271264e-06</v>
+        <v>0.01045912272880196</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.0577347395763693</v>
+        <v>0.003442591549062845</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.01045912272880196</v>
+        <v>1.912080568695083</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003442591549062845</v>
+        <v>3.087370707473895</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.94375087835119</v>
+        <v>5.441542928953234</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.087370707473895</v>
+        <v>1.423429604924385e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.441542928953234</v>
+        <v>3451252553.374817</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.423429604924385e-16</v>
+        <v>3.47128675985383e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>3451252553.374817</v>
+        <v>1695.46752645496</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.47128675985383e-08</v>
+        <v>7.425646432510402e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1695.46752645496</v>
+        <v>8.179767934442358</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>7.425646432510402e-05</v>
+        <v>1.695038343724314</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.179767934442358</v>
+        <v>0.004968396325968887</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.695038343724314</v>
+        <v>4.917370149106739</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.004968396325968887</v>
+        <v>0.9658534825329476</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.917370149106739</v>
+        <v>1.065654200433279</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9658534825329476</v>
+        <v>266</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.065654200433279</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>266</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>4.245083255138335</v>
       </c>
     </row>
@@ -2351,72 +2213,66 @@
         <v>3.426309327153716e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.05438225110507557</v>
+        <v>1.180007832419674e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.209169049631274</v>
+        <v>6.896128394296123e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.180007832419674e-06</v>
+        <v>-0.05739993159946198</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.896128394296123e-06</v>
+        <v>0.01033879215424879</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05739993159946198</v>
+        <v>0.003401569033331288</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.01033879215424879</v>
+        <v>1.918398894300065</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003401569033331288</v>
+        <v>2.955704990967024</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.947922742102026</v>
+        <v>5.466195472154734</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.955704990967024</v>
+        <v>1.410619221747485e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.466195472154734</v>
+        <v>3520530208.826736</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.410619221747485e-16</v>
+        <v>3.417692562914267e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>3520530208.826736</v>
+        <v>1748.340217794354</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.417692562914267e-08</v>
+        <v>7.3588407467123e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>1748.340217794354</v>
+        <v>9.416616692580339</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>7.3588407467123e-05</v>
+        <v>1.501046234396202</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.416616692580339</v>
+        <v>0.006525280566373214</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.501046234396202</v>
+        <v>5.009932932950477</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.006525280566373214</v>
+        <v>0.9664550615573595</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.009932932950477</v>
+        <v>1.062911708575607</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9664550615573595</v>
+        <v>283</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.062911708575607</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>283</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>4.907471193373801</v>
       </c>
     </row>
@@ -2431,72 +2287,66 @@
         <v>3.433927463361401e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.05139632965670996</v>
+        <v>1.176100153712014e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.210998970475673</v>
+        <v>6.876496563225554e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.176100153712014e-06</v>
+        <v>-0.05708290003745793</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.876496563225554e-06</v>
+        <v>0.01023089150030554</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05708290003745793</v>
+        <v>0.00336306261161757</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.01023089150030554</v>
+        <v>1.920085172933979</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.00336306261161757</v>
+        <v>3.023910736357007</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.946903385978834</v>
+        <v>5.820972518601511</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.023910736357007</v>
+        <v>1.243910161921109e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.820972518601511</v>
+        <v>4013378441.088446</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.243910161921109e-16</v>
+        <v>3.000175307553417e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>4013378441.088446</v>
+        <v>2003.591785968426</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.000175307553417e-08</v>
+        <v>6.86049050303213e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2003.591785968426</v>
+        <v>7.743985995072397</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>6.86049050303213e-05</v>
+        <v>1.470671619790604</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.743985995072397</v>
+        <v>0.004114189441031285</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.470671619790604</v>
+        <v>5.036532759416773</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.004114189441031285</v>
+        <v>0.9652623982687935</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.036532759416773</v>
+        <v>1.111618097830034</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9652623982687935</v>
+        <v>296</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.111618097830034</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>296</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>4.53028422396594</v>
       </c>
     </row>
@@ -2511,72 +2361,66 @@
         <v>3.442242745681298e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.04684842686071763</v>
+        <v>1.174153540954389e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.211244156498904</v>
+        <v>6.856913927440174e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.174153540954389e-06</v>
+        <v>-0.05685017871235766</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6.856913927440174e-06</v>
+        <v>0.01018226851504009</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05685017871235766</v>
+        <v>0.00333562588941488</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.01018226851504009</v>
+        <v>1.926341023212051</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.00333562588941488</v>
+        <v>3.107501155955926</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.95630000861603</v>
+        <v>5.940072856017794</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.107501155955926</v>
+        <v>1.194528649202405e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.940072856017794</v>
+        <v>4195972214.260893</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.194528649202405e-16</v>
+        <v>2.875048771878518e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>4195972214.260893</v>
+        <v>2103.108978498895</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.875048771878518e-08</v>
+        <v>6.868024503759506e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2103.108978498895</v>
+        <v>6.649053219482319</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>6.868024503759506e-05</v>
+        <v>1.463325282864374</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>6.649053219482319</v>
+        <v>0.003036347363670811</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.463325282864374</v>
+        <v>5.008657940382335</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.003036347363670811</v>
+        <v>0.9648882413742819</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>5.008657940382335</v>
+        <v>1.049269105532024</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9648882413742819</v>
+        <v>299</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.049269105532024</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>299</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>4.325472695541258</v>
       </c>
     </row>
@@ -2591,72 +2435,66 @@
         <v>3.450466913948901e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.04135652843789651</v>
+        <v>1.175215468047164e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.210613808343815</v>
+        <v>6.83734216252448e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.175215468047164e-06</v>
+        <v>-0.05676532778951922</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.83734216252448e-06</v>
+        <v>0.01013522892456513</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05676532778951922</v>
+        <v>0.00332509565081676</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.01013522892456513</v>
+        <v>1.930381613900179</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.00332509565081676</v>
+        <v>3.791421472150801</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.957448277830279</v>
+        <v>5.626760737044666</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.791421472150801</v>
+        <v>1.12733316575255e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.626760737044666</v>
+        <v>4390194635.246175</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.12733316575255e-16</v>
+        <v>2.74465940909896e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>4390194635.246175</v>
+        <v>2172.800404319146</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.74465940909896e-08</v>
+        <v>6.699447603591383e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2172.800404319146</v>
+        <v>6.163165762118052</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>6.699447603591383e-05</v>
+        <v>1.38388497170456</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.163165762118052</v>
+        <v>0.002544759192526378</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.38388497170456</v>
+        <v>5.077545250350903</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.002544759192526378</v>
+        <v>0.963705647991615</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>5.077545250350903</v>
+        <v>1.038510260028486</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.963705647991615</v>
+        <v>310</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.038510260028486</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>310</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>4.34678449549034</v>
       </c>
     </row>
@@ -2671,72 +2509,66 @@
         <v>3.457643206764736e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.03618614826620161</v>
+        <v>1.182157768066065e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.210092468518159</v>
+        <v>6.817706702427626e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.182157768066065e-06</v>
+        <v>-0.0569812346711774</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.817706702427626e-06</v>
+        <v>0.009819114637430989</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.0569812346711774</v>
+        <v>0.003343409425279149</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.009819114637430989</v>
+        <v>1.935842348514375</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.003343409425279149</v>
+        <v>3.326693701496033</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.958546207189845</v>
+        <v>5.610699858942815</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.326693701496033</v>
+        <v>1.133796486040644e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.610699858942815</v>
+        <v>4277409852.077052</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.133796486040644e-16</v>
+        <v>2.816252765250837e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>4277409852.077052</v>
+        <v>2074.420699912553</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.816252765250837e-08</v>
+        <v>5.593270572582104e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>2074.420699912553</v>
+        <v>6.082299646225586</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>5.593270572582104e-05</v>
+        <v>1.359991197726863</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>6.082299646225586</v>
+        <v>0.002069195154032996</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.359991197726863</v>
+        <v>5.39998237637954</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.002069195154032996</v>
+        <v>0.9634884722590976</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>5.39998237637954</v>
+        <v>1.045200056077033</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9634884722590976</v>
+        <v>299</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.045200056077033</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>299</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>5.103889484136708</v>
       </c>
     </row>
@@ -2751,72 +2583,66 @@
         <v>3.462404515781301e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.03323722669782236</v>
+        <v>1.19501178045298e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.211609322762697</v>
+        <v>6.797901914422887e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.19501178045298e-06</v>
+        <v>-0.05752076987924621</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6.797901914422887e-06</v>
+        <v>0.008671918703292944</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05752076987924621</v>
+        <v>0.003384030245817913</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.008671918703292944</v>
+        <v>1.937724969642252</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003384030245817913</v>
+        <v>3.257812571473629</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.95972811488524</v>
+        <v>5.550859412793576</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.257812571473629</v>
+        <v>1.158373795805315e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.550859412793576</v>
+        <v>4112955020.999244</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.158373795805315e-16</v>
+        <v>2.921570068870185e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>4112955020.999244</v>
+        <v>1959.551332650444</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.921570068870185e-08</v>
+        <v>4.25551177878373e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1959.551332650444</v>
+        <v>7.747675922767908</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>4.25551177878373e-05</v>
+        <v>1.55032662770529</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.747675922767908</v>
+        <v>0.002554434020590849</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.55032662770529</v>
+        <v>5.813523065608313</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.002554434020590849</v>
+        <v>0.9626873362487496</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>5.813523065608313</v>
+        <v>1.061146944088711</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9626873362487496</v>
+        <v>296</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.061146944088711</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>296</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>6.638887764865562</v>
       </c>
     </row>
@@ -2831,72 +2657,66 @@
         <v>3.463893626685788e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.03323317028674041</v>
+        <v>1.201992764727193e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.217169675361744</v>
+        <v>6.777908047418993e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.201992764727193e-06</v>
+        <v>-0.05783360817880473</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>6.777908047418993e-06</v>
+        <v>0.008060912440936248</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05783360817880473</v>
+        <v>0.003409788858594763</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.008060912440936248</v>
+        <v>1.934405068774407</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003409788858594763</v>
+        <v>3.241027259468654</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.95851344008018</v>
+        <v>5.726331653788196</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.241027259468654</v>
+        <v>1.379193582784295e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.726331653788196</v>
+        <v>3402936317.103909</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.379193582784295e-16</v>
+        <v>3.531598968182097e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>3402936317.103909</v>
+        <v>1597.102800634154</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.531598968182097e-08</v>
+        <v>4.973461142572116e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1597.102800634154</v>
+        <v>9.803396555531139</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>4.973461142572116e-05</v>
+        <v>1.665820335750494</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.803396555531139</v>
+        <v>0.004779823611936785</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.665820335750494</v>
+        <v>5.914739122964986</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.004779823611936785</v>
+        <v>0.9634547822802416</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>5.914739122964986</v>
+        <v>1.085338178539102</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9634547822802416</v>
+        <v>294</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.085338178539102</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>294</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>6.926227186382192</v>
       </c>
     </row>
@@ -2911,72 +2731,66 @@
         <v>3.464017519590253e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.03334779391803703</v>
+        <v>1.196789214050255e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.224716833171028</v>
+        <v>6.757905751577446e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.196789214050255e-06</v>
+        <v>-0.05758185173732721</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>6.757905751577446e-06</v>
+        <v>0.008103853991792283</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05758185173732721</v>
+        <v>0.003381331041092292</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.008103853991792283</v>
+        <v>1.93378142894432</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003381331041092292</v>
+        <v>2.849494934140699</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.961414530916375</v>
+        <v>5.573646961373135</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.849494934140699</v>
+        <v>1.665441965695841e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>5.573646961373135</v>
+        <v>2836683334.898992</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.665441965695841e-16</v>
+        <v>4.233935471496468e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>2836683334.898992</v>
+        <v>1340.143234758958</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.233935471496468e-08</v>
+        <v>6.282767282122151e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1340.143234758958</v>
+        <v>8.435770117628515</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>6.282767282122151e-05</v>
+        <v>2.069522791083191</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.435770117628515</v>
+        <v>0.004470956516907361</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>2.069522791083191</v>
+        <v>5.551426890897236</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.004470956516907361</v>
+        <v>0.9631695408631096</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>5.551426890897236</v>
+        <v>1.063894813295158</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9631695408631096</v>
+        <v>285</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.063894813295158</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>285</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>5.37501266956849</v>
       </c>
     </row>
@@ -2991,72 +2805,66 @@
         <v>3.463837543443202e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.03106139514740687</v>
+        <v>1.186098816323277e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.232409735391841</v>
+        <v>6.73804411807237e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.186098816323277e-06</v>
+        <v>-0.05706983133903671</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.73804411807237e-06</v>
+        <v>0.008272458861371965</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05706983133903671</v>
+        <v>0.003325438571387959</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.008272458861371965</v>
+        <v>1.933689203042295</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003325438571387959</v>
+        <v>3.04996409047715</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.959854798151804</v>
+        <v>5.591785186304121</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.04996409047715</v>
+        <v>1.86771856825122e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.591785186304121</v>
+        <v>2542658483.886077</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.86771856825122e-16</v>
+        <v>4.72408553308213e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>2542658483.886077</v>
+        <v>1207.501003766336</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.72408553308213e-08</v>
+        <v>7.944677336563404e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1207.501003766336</v>
+        <v>7.861861042616064</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>7.944677336563404e-05</v>
+        <v>1.809108780204891</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.861861042616064</v>
+        <v>0.004910514417204216</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.809108780204891</v>
+        <v>4.914521712368599</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.004910514417204216</v>
+        <v>0.963104750199833</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>4.914521712368599</v>
+        <v>1.024656702198565</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.963104750199833</v>
+        <v>285</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.024656702198565</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>285</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>3.653495758178877</v>
       </c>
     </row>
@@ -3071,72 +2879,66 @@
         <v>3.462461157149966e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.02552040684223072</v>
+        <v>1.172933501261779e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.240703047389799</v>
+        <v>6.71838272787004e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.172933501261779e-06</v>
+        <v>-0.05645736538296982</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.71838272787004e-06</v>
+        <v>0.009066025707563265</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05645736538296982</v>
+        <v>0.003269781289187413</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.009066025707563265</v>
+        <v>1.92920558581132</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003269781289187413</v>
+        <v>2.724913234609519</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.95846599282894</v>
+        <v>5.866512172782894</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.724913234609519</v>
+        <v>3.006276053726261e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>5.866512172782894</v>
+        <v>1579324579.436624</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.006276053726261e-16</v>
+        <v>7.605694597830286e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1579324579.436624</v>
+        <v>749.8452529859991</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>7.605694597830286e-08</v>
+        <v>0.0001009688633202309</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>749.8452529859991</v>
+        <v>9.590559020840862</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001009688633202309</v>
+        <v>1.303529952623938</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.590559020840862</v>
+        <v>0.009286997140418935</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.303529952623938</v>
+        <v>4.360841076813117</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.009286997140418935</v>
+        <v>0.962512411222701</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>4.360841076813117</v>
+        <v>0.9967878470979878</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.962512411222701</v>
+        <v>252</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.9967878470979878</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>252</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>2.694136677633885</v>
       </c>
     </row>
@@ -3151,72 +2953,66 @@
         <v>3.457848116784234e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.01652865800211663</v>
+        <v>1.15752378052446e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.251246102895298</v>
+        <v>6.698958334882991e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.15752378052446e-06</v>
+        <v>-0.05578816968393477</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.698958334882991e-06</v>
+        <v>0.01083884058788242</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05578816968393477</v>
+        <v>0.003230042140941667</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.01083884058788242</v>
+        <v>1.93120728491801</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.003230042140941667</v>
+        <v>2.543763834750417</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.960623480682713</v>
+        <v>5.212769270004097</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.543763834750417</v>
+        <v>4.83533183547116e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>5.212769270004097</v>
+        <v>996041578.1668909</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>4.83533183547116e-16</v>
+        <v>1.212217995477843e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>996041578.1668909</v>
+        <v>479.7127034569993</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.212217995477843e-07</v>
+        <v>0.0001211150161016561</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>479.7127034569993</v>
+        <v>12.11494217327804</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001211150161016561</v>
+        <v>1.113426804817268</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>12.11494217327804</v>
+        <v>0.01777627181029993</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.113426804817268</v>
+        <v>4.03433146735149</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01777627181029993</v>
+        <v>0.9637428481292183</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.03433146735149</v>
+        <v>1.014681932466627</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9637428481292183</v>
+        <v>210</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.014681932466627</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>2.420603758689873</v>
       </c>
     </row>
@@ -3231,72 +3027,66 @@
         <v>3.447516990812197e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.004085958719538894</v>
+        <v>1.14117604227397e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.265847190030825</v>
+        <v>6.679820864140358e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.14117604227397e-06</v>
+        <v>-0.05501056880983313</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.679820864140358e-06</v>
+        <v>0.01369020634116915</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05501056880983313</v>
+        <v>0.0032138059018744</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.01369020634116915</v>
+        <v>1.929033321249808</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.0032138059018744</v>
+        <v>2.488617385811478</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.953706243766342</v>
+        <v>4.574089032643227</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.488617385811478</v>
+        <v>6.33352771342225e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.574089032643227</v>
+        <v>759872632.1212147</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>6.33352771342225e-16</v>
+        <v>1.587191938853684e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>759872632.1212147</v>
+        <v>365.7019544273899</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.587191938853684e-07</v>
+        <v>0.0001410656226681487</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>365.7019544273899</v>
+        <v>14.23376747157263</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001410656226681487</v>
+        <v>1.015989333648151</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>14.23376747157263</v>
+        <v>0.02857991439882681</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.015989333648151</v>
+        <v>3.81976843929507</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.02857991439882681</v>
+        <v>0.9629752602523804</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.81976843929507</v>
+        <v>1.10412349675532</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9629752602523804</v>
+        <v>184</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.10412349675532</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>2.430914151855983</v>
       </c>
     </row>
@@ -3311,72 +3101,66 @@
         <v>3.430134635600207e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.01212119695934437</v>
+        <v>1.122512639016791e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.284452384047103</v>
+        <v>6.661062288924438e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.122512639016791e-06</v>
+        <v>-0.05402065263864996</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.661062288924438e-06</v>
+        <v>0.01692762573152397</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05402065263864996</v>
+        <v>0.003204877030280389</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.01692762573152397</v>
+        <v>1.924589188915593</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.003204877030280389</v>
+        <v>2.477318812471669</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.949117379532305</v>
+        <v>4.617297382930736</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.477318812471669</v>
+        <v>6.215544915390455e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.617297382930736</v>
+        <v>769733594.4795554</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>6.215544915390455e-16</v>
+        <v>1.564799640963402e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>769733594.4795554</v>
+        <v>368.2647004027873</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.564799640963402e-07</v>
+        <v>0.0001502321803920977</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>368.2647004027873</v>
+        <v>13.06772107083073</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001502321803920977</v>
+        <v>1.117773634273681</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>13.06772107083073</v>
+        <v>0.02565444845995636</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.117773634273681</v>
+        <v>3.744208815539242</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02565444845995636</v>
+        <v>0.9623267282125787</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.744208815539242</v>
+        <v>1.150118365164716</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9623267282125787</v>
+        <v>133</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.150118365164716</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>2.049649163574374</v>
       </c>
     </row>
@@ -3391,72 +3175,66 @@
         <v>3.406569721832161e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.03264361680594583</v>
+        <v>1.100283292043775e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.304145376355445</v>
+        <v>6.642778686730093e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.100283292043775e-06</v>
+        <v>-0.05294454992543017</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.642778686730093e-06</v>
+        <v>0.01957525077947125</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05294454992543017</v>
+        <v>0.003186360105342994</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.01957525077947125</v>
+        <v>1.924553734325877</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.003186360105342994</v>
+        <v>2.479311087251747</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.936317416306762</v>
+        <v>5.717543573895344</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.479311087251747</v>
+        <v>7.818699455378688e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.717543573895344</v>
+        <v>577328855.0979496</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>7.818699455378688e-16</v>
+        <v>2.086195661603955e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>577328855.0979496</v>
+        <v>260.6039823466528</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.086195661603955e-07</v>
+        <v>0.0001805127088320183</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>260.6039823466528</v>
+        <v>9.614036646840583</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001805127088320183</v>
+        <v>1.603847367476349</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.614036646840583</v>
+        <v>0.01668473564028529</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.603847367476349</v>
+        <v>3.445739886615548</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01668473564028529</v>
+        <v>0.9621206207194212</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.445739886615548</v>
+        <v>1.230182786519239</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9621206207194212</v>
+        <v>103</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.230182786519239</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>1.228326730023528</v>
       </c>
     </row>
@@ -3471,72 +3249,66 @@
         <v>3.378881455438241e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.05701815259511864</v>
+        <v>1.076280842702025e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.321609764582377</v>
+        <v>6.624954929472873e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.076280842702025e-06</v>
+        <v>-0.05221405849979706</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.624954929472873e-06</v>
+        <v>0.02074825513041324</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05221405849979706</v>
+        <v>0.003156776740544208</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.02074825513041324</v>
+        <v>1.907356055242863</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.003156776740544208</v>
+        <v>1.996884297863523</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.90859572470315</v>
+        <v>5.234165624672518</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.996884297863523</v>
+        <v>2.145888404233942e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.234165624672518</v>
+        <v>210588876.463028</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.145888404233942e-15</v>
+        <v>5.702889225990094e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>210588876.463028</v>
+        <v>95.165161301103</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.702889225990094e-07</v>
+        <v>0.0002303586773741308</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>95.165161301103</v>
+        <v>9.320089207379416</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0002303586773741308</v>
+        <v>1.76055909201359</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.320089207379416</v>
+        <v>0.02000989062567082</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.76055909201359</v>
+        <v>2.924183324943771</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02000989062567082</v>
+        <v>0.9614984767656397</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.924183324943771</v>
+        <v>1.367995644130848</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9614984767656397</v>
+        <v>101</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.367995644130848</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.6140992030949626</v>
       </c>
     </row>
@@ -3551,72 +3323,66 @@
         <v>3.350384254869367e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.08365354862118196</v>
+        <v>1.051546664590812e-06</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.334039978569768</v>
+        <v>6.607426014073936e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.051546664590812e-06</v>
+        <v>-0.05206135834606329</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>6.607426014073936e-06</v>
+        <v>0.02085034710245704</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.05206135834606329</v>
+        <v>0.003144964724910302</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.02085034710245704</v>
+        <v>1.897833192956955</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.003144964724910302</v>
+        <v>2.074387630421969</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.894409738973859</v>
+        <v>4.526384387912386</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.074387630421969</v>
+        <v>2.869453493983767e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.526384387912386</v>
+        <v>155184656.5941135</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.869453493983767e-15</v>
+        <v>7.694370393490417e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>155184656.5941135</v>
+        <v>69.10297572359245</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>7.694370393490417e-07</v>
+        <v>0.0002167616812229679</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>69.10297572359245</v>
+        <v>10.71887288222722</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0002167616812229679</v>
+        <v>1.304277929130619</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>10.71887288222722</v>
+        <v>0.02490466772900064</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.304277929130619</v>
+        <v>2.662413531391827</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.02490466772900064</v>
+        <v>0.9596648343203638</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.662413531391827</v>
+        <v>1.364075136070055</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9596648343203638</v>
+        <v>84</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.364075136070055</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.4119835622543964</v>
       </c>
     </row>
@@ -3631,72 +3397,66 @@
         <v>3.323325118192757e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.1110954335427516</v>
+        <v>1.041278359030249e-06</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.339955959720597</v>
+        <v>6.590033385718965e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.041278359030249e-06</v>
+        <v>-0.05222202602682162</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>6.590033385718965e-06</v>
+        <v>0.02088553667372525</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.05222202602682162</v>
+        <v>0.003163190985313801</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.02088553667372525</v>
+        <v>1.894942659653629</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.003163190985313801</v>
+        <v>2.026317553055371</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.887278592277197</v>
+        <v>4.48873703509115</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.026317553055371</v>
+        <v>2.917787955832872e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.48873703509115</v>
+        <v>153767627.4632922</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>2.917787955832872e-15</v>
+        <v>7.779525064162176e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>153767627.4632922</v>
+        <v>68.98958846534377</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>7.779525064162176e-07</v>
+        <v>0.0001980059890107359</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>68.98958846534377</v>
+        <v>12.1907967977021</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001980059890107359</v>
+        <v>1.051396471633662</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>12.1907967977021</v>
+        <v>0.02942676431943114</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.051396471633662</v>
+        <v>2.49506269123057</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.02942676431943114</v>
+        <v>0.9605050785881489</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.49506269123057</v>
+        <v>1.447220843633499</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9605050785881489</v>
+        <v>82</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.447220843633499</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.3440968919932406</v>
       </c>
     </row>
@@ -3711,72 +3471,66 @@
         <v>3.297848481888914e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.1384962039553161</v>
+        <v>1.038162002351617e-06</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.339323396034698</v>
+        <v>6.572705667923395e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.038162002351617e-06</v>
+        <v>-0.0524673069337054</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>6.572705667923395e-06</v>
+        <v>0.02098690861833051</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.0524673069337054</v>
+        <v>0.003193191737276645</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.02098690861833051</v>
+        <v>1.891953349381705</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.003193191737276645</v>
+        <v>2.010475252468901</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.883207101644363</v>
+        <v>4.480389407454268</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.010475252468901</v>
+        <v>2.928670624789169e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.480389407454268</v>
+        <v>153089354.7748377</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>2.928670624789169e-15</v>
+        <v>7.810786598122415e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>153089354.7748377</v>
+        <v>68.63735139450471</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>7.810786598122415e-07</v>
+        <v>0.0001781655535120293</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>68.63735139450471</v>
+        <v>11.43029935426199</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001781655535120293</v>
+        <v>1.098992949626237</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>11.43029935426199</v>
+        <v>0.02327764016735218</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.098992949626237</v>
+        <v>2.606039198375359</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.02327764016735218</v>
+        <v>0.9605979763260382</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.606039198375359</v>
+        <v>1.459897057397153</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9605979763260382</v>
+        <v>68</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.459897057397153</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2976975456231735</v>
       </c>
     </row>
@@ -3791,72 +3545,66 @@
         <v>3.273141660771763e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.1654846107246356</v>
+        <v>1.035707430392155e-06</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.332833860639106</v>
+        <v>6.555424806142177e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.035707430392155e-06</v>
+        <v>-0.05273748774086164</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>6.555424806142177e-06</v>
+        <v>0.02113105984166699</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.05273748774086164</v>
+        <v>0.003227783195775743</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.02113105984166699</v>
+        <v>1.884287961539066</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.003227783195775743</v>
+        <v>2.096368883674864</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.878373904082111</v>
+        <v>4.470738785629369</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.096368883674864</v>
+        <v>2.941328039620488e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.470738785629369</v>
+        <v>152711618.23965</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.941328039620488e-15</v>
+        <v>7.825213252703658e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>152711618.23965</v>
+        <v>68.59423573270108</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>7.825213252703658e-07</v>
+        <v>0.0001595566511088407</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>68.59423573270108</v>
+        <v>9.272296524126663</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001595566511088407</v>
+        <v>1.257894636782561</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.272296524126663</v>
+        <v>0.01371796011803287</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.257894636782561</v>
+        <v>2.899661866471563</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01371796011803287</v>
+        <v>0.9611327027644606</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.899661866471563</v>
+        <v>1.448893558845003</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9611327027644606</v>
+        <v>51</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.448893558845003</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2704232606703624</v>
       </c>
     </row>
@@ -3871,72 +3619,66 @@
         <v>3.248030529489144e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.1917797395954411</v>
+        <v>1.033011656230064e-06</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.321715203776252</v>
+        <v>6.538183424476341e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.033011656230064e-06</v>
+        <v>-0.05300575419258493</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6.538183424476341e-06</v>
+        <v>0.02133396438563832</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.05300575419258493</v>
+        <v>0.003264871258874929</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.02133396438563832</v>
+        <v>1.87757080558251</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.003264871258874929</v>
+        <v>2.048659941720631</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.880424669729929</v>
+        <v>4.430301905859169</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.048659941720631</v>
+        <v>2.995266089584916e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.430301905859169</v>
+        <v>152518785.8481596</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>2.995266089584916e-15</v>
+        <v>7.812347467654059e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>152518785.8481596</v>
+        <v>69.67581998021954</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>7.812347467654059e-07</v>
+        <v>0.0001622926625535355</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>69.67581998021954</v>
+        <v>8.078593886459668</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001622926625535355</v>
+        <v>1.539291960341732</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>8.078593886459668</v>
+        <v>0.01059181626254228</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.539291960341732</v>
+        <v>2.98972541565204</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01059181626254228</v>
+        <v>0.9610032653534084</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.98972541565204</v>
+        <v>1.441544711617736</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9610032653534084</v>
+        <v>45</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.441544711617736</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2574298960928255</v>
       </c>
     </row>
@@ -3951,72 +3693,66 @@
         <v>3.220983527300256e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.2173953323945153</v>
+        <v>1.028549512090253e-06</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.307661011523213</v>
+        <v>6.521001077750148e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.028549512090253e-06</v>
+        <v>-0.0532183135586461</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>6.521001077750148e-06</v>
+        <v>0.02169325953387238</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.0532183135586461</v>
+        <v>0.003303026300130281</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.02169325953387238</v>
+        <v>1.876469638734823</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.003303026300130281</v>
+        <v>1.984087647734033</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.878736258464932</v>
+        <v>4.334212007769945</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.984087647734033</v>
+        <v>3.129548978311485e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.334212007769945</v>
+        <v>149187512.6927212</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>3.129548978311485e-15</v>
+        <v>8.015491974939708e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>149187512.6927212</v>
+        <v>69.65410229206196</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>8.015491974939708e-07</v>
+        <v>0.0001707094568007959</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>69.65410229206196</v>
+        <v>9.204715395645247</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001707094568007959</v>
+        <v>1.358950469207574</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>9.204715395645247</v>
+        <v>0.01446366353171394</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.358950469207574</v>
+        <v>2.881559613293351</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01446366353171394</v>
+        <v>0.9613697222779437</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.881559613293351</v>
+        <v>1.438514451911314</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9613697222779437</v>
+        <v>22</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.438514451911314</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2594997629596735</v>
       </c>
     </row>
@@ -4393,7 +4129,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.510670371442693</v>
+        <v>1.394182992588805</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.997359393935012</v>
@@ -4482,7 +4218,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.507646180675549</v>
+        <v>1.392855909374009</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.791720380114887</v>
@@ -4571,7 +4307,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.511750743195142</v>
+        <v>1.396800285833609</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.018855731474781</v>
@@ -4660,7 +4396,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.493870024153082</v>
+        <v>1.39218398843464</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.788604266946364</v>
@@ -4749,7 +4485,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.46747973969289</v>
+        <v>1.388845681738708</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.322252465550851</v>
@@ -4838,7 +4574,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.449166983161659</v>
+        <v>1.376196344448457</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.820286059804292</v>
@@ -4927,7 +4663,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.450267233800819</v>
+        <v>1.37876515893437</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.854014850222199</v>
@@ -5016,7 +4752,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.445212061230091</v>
+        <v>1.37731393772348</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.975514528679963</v>
@@ -5105,7 +4841,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.439826207460948</v>
+        <v>1.374892861603841</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.830363302433004</v>
@@ -5194,7 +4930,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.435468928224916</v>
+        <v>1.371050016140679</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.751759727000187</v>
@@ -5283,7 +5019,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.408317834973261</v>
+        <v>1.35388297207172</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.520255638585908</v>
@@ -5372,7 +5108,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.403147481599603</v>
+        <v>1.349781456707483</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.742406956241526</v>
@@ -5461,7 +5197,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.406285684388862</v>
+        <v>1.350423168614471</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.663844063472367</v>
@@ -5550,7 +5286,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.425780503474334</v>
+        <v>1.37034153748251</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.582377749314217</v>
@@ -5639,7 +5375,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.43457754208998</v>
+        <v>1.376596774286075</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.508506120620554</v>
@@ -5728,7 +5464,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.431836127866103</v>
+        <v>1.372055293779738</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.683432223555317</v>
@@ -5817,7 +5553,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.430583232318973</v>
+        <v>1.372662840196985</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.646112898966826</v>
@@ -5906,7 +5642,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.417307521173397</v>
+        <v>1.364684323080436</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.84466007105426</v>
@@ -5995,7 +5731,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.416685578237787</v>
+        <v>1.363442775412222</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.295471104293948</v>
@@ -6084,7 +5820,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.407517564566344</v>
+        <v>1.358261109233976</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.766105537068562</v>
@@ -6173,7 +5909,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.402958281962942</v>
+        <v>1.355745082304053</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.585459248884315</v>
@@ -6262,7 +5998,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.389173860235801</v>
+        <v>1.34781353890418</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.554999231144422</v>
@@ -6351,7 +6087,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.383403695487127</v>
+        <v>1.346813542776952</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.706149845546875</v>
@@ -6440,7 +6176,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.378927962530058</v>
+        <v>1.345712179523346</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.583330333814167</v>
@@ -6529,7 +6265,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.375924302025748</v>
+        <v>1.34249386582725</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.425132571382899</v>
@@ -6618,7 +6354,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.366139388605429</v>
+        <v>1.335711466107691</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.5477871587244</v>
@@ -6707,7 +6443,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.367524317805025</v>
+        <v>1.333070186327138</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.346055843077806</v>
@@ -6796,7 +6532,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.373207423072661</v>
+        <v>1.344551670745953</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.409940380131786</v>
@@ -6885,7 +6621,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.384195930181977</v>
+        <v>1.351311776788933</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.339391626383399</v>
@@ -6974,7 +6710,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.378809147448946</v>
+        <v>1.346378453961632</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.501119094906309</v>
@@ -7063,7 +6799,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.396123374176639</v>
+        <v>1.362829215466934</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.401659948299356</v>
@@ -7152,7 +6888,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.412879319411162</v>
+        <v>1.377493538958116</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.418513432378638</v>
@@ -7241,7 +6977,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.428060296977253</v>
+        <v>1.38490843349875</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.514983371778052</v>
@@ -7330,7 +7066,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.442582312937805</v>
+        <v>1.39833828953222</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.577856171304868</v>
@@ -7419,7 +7155,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.463962436937664</v>
+        <v>1.423370537623032</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.363224516884291</v>
@@ -7508,7 +7244,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.491172827672113</v>
+        <v>1.452211688034714</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.415806728746012</v>
@@ -7597,7 +7333,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.50096889740766</v>
+        <v>1.458952286994452</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.419470682054315</v>
@@ -7686,7 +7422,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.49430075398391</v>
+        <v>1.452605670755225</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.569596973102182</v>
@@ -7775,7 +7511,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.48536378574238</v>
+        <v>1.439835617078101</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.579972030179122</v>
@@ -7864,7 +7600,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.487832722518746</v>
+        <v>1.440681623482085</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.553940661882059</v>
@@ -7953,7 +7689,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.507125054239493</v>
+        <v>1.458458054273225</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.58110633320195</v>
@@ -8042,7 +7778,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.493819897635291</v>
+        <v>1.456243704976925</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.729230112244891</v>
@@ -8131,7 +7867,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.495345807456243</v>
+        <v>1.453702862121233</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.525803519621036</v>
@@ -8220,7 +7956,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.467568197331769</v>
+        <v>1.426906425271454</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.542399498036397</v>
@@ -8309,7 +8045,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.457186649395566</v>
+        <v>1.417930148664856</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.546777949365492</v>
@@ -8398,7 +8134,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.449191214603807</v>
+        <v>1.411101438782465</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.694522118588302</v>
@@ -8487,7 +8223,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.448878663874331</v>
+        <v>1.404878487922453</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.599200588438116</v>
@@ -8576,7 +8312,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.438919063710549</v>
+        <v>1.403702280431475</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.636531990374231</v>
@@ -8665,7 +8401,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.434009280849734</v>
+        <v>1.395347909777385</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.651359817565952</v>
@@ -8754,7 +8490,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.431808152052595</v>
+        <v>1.390226726637525</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.605650985032676</v>
@@ -8843,7 +8579,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.423470448679165</v>
+        <v>1.377066344288877</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.790401787985572</v>
@@ -8932,7 +8668,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.415698878380012</v>
+        <v>1.370571071766767</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.754530287388827</v>
@@ -9021,7 +8757,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.420325372715693</v>
+        <v>1.372155216864842</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.808110377837985</v>
@@ -9110,7 +8846,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.429482756180536</v>
+        <v>1.379857462067563</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.676716712014608</v>
@@ -9199,7 +8935,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.426940371060046</v>
+        <v>1.382160031447287</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.710921708676914</v>
@@ -9288,7 +9024,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.422449495651883</v>
+        <v>1.375619616527285</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.673611446278595</v>
@@ -9377,7 +9113,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.422515095908412</v>
+        <v>1.374754007283648</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.786871414436636</v>
@@ -9466,7 +9202,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.416848756573085</v>
+        <v>1.373151999509065</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.821969720526626</v>
@@ -9555,7 +9291,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.422197199445722</v>
+        <v>1.385063366829939</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.509285332952053</v>
@@ -9644,7 +9380,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.444210416190426</v>
+        <v>1.40556749347571</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.627456519514361</v>
@@ -9733,7 +9469,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.441942898102327</v>
+        <v>1.408679330216058</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.597978135035607</v>
@@ -9822,7 +9558,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.435469991962739</v>
+        <v>1.410013176320391</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.715133879207515</v>
@@ -9911,7 +9647,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.393580811902648</v>
+        <v>1.367446574425544</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.308677232224437</v>
@@ -10000,7 +9736,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.333134668266105</v>
+        <v>1.315948219785952</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.094689343319741</v>
@@ -10089,7 +9825,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.297385258482766</v>
+        <v>1.282607760825308</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.969423935182083</v>
@@ -10178,7 +9914,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.255486666156856</v>
+        <v>1.241190623719142</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.037397362526864</v>
@@ -10267,7 +10003,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.222688445901846</v>
+        <v>1.215386609505467</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.140873647388998</v>
@@ -10356,7 +10092,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.19521785381876</v>
+        <v>1.184186398069084</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.186718161619726</v>
@@ -10445,7 +10181,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.177036716910789</v>
+        <v>1.157770345744599</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.322771439039654</v>
@@ -10534,7 +10270,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.17094522324342</v>
+        <v>1.153259454103876</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.318196018282004</v>
@@ -10623,7 +10359,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.163111340366555</v>
+        <v>1.147061544600773</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.242109809768936</v>
@@ -10712,7 +10448,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.166559129558026</v>
+        <v>1.151173325417072</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.342801885023293</v>
@@ -10801,7 +10537,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.169106467121362</v>
+        <v>1.1529872523761</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.390322876082972</v>
@@ -10890,7 +10626,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.168170322674617</v>
+        <v>1.150245352205802</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.336759048657308</v>
@@ -10979,7 +10715,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.172895129163154</v>
+        <v>1.154557970858491</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.323722347824268</v>
@@ -11068,7 +10804,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.170904583839138</v>
+        <v>1.15164515541609</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.284776058327909</v>
@@ -11157,7 +10893,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.17454176986497</v>
+        <v>1.153464036351469</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.243954020080395</v>
@@ -11246,7 +10982,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.185027481065063</v>
+        <v>1.163959552934654</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.218683963094914</v>
@@ -11335,7 +11071,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.202876124121181</v>
+        <v>1.175408903035436</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.108334734082145</v>
@@ -11424,7 +11160,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.221351954072293</v>
+        <v>1.192858467992041</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.171521951178721</v>
@@ -11513,7 +11249,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.238540085001801</v>
+        <v>1.211622764194132</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.045324758858138</v>
@@ -11602,7 +11338,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.266172316571459</v>
+        <v>1.23582806931461</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.95805449910705</v>
@@ -11691,7 +11427,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.302087430615087</v>
+        <v>1.272979580980861</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.941278073392536</v>
@@ -11780,7 +11516,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.351431952299066</v>
+        <v>1.324240412708424</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.882474754290994</v>
@@ -11869,7 +11605,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.373820850956354</v>
+        <v>1.338866673961335</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.308972587954078</v>
@@ -11958,7 +11694,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.396233221511564</v>
+        <v>1.358712275099617</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.215405610296638</v>
@@ -12047,7 +11783,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.394913758524586</v>
+        <v>1.350760564872874</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.354892593112458</v>
@@ -12333,7 +12069,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.39031921962932</v>
+        <v>1.373683419269387</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.294066952922316</v>
@@ -12422,7 +12158,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.391288805752654</v>
+        <v>1.3779595240245</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.282958858192108</v>
@@ -12511,7 +12247,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.399173200732219</v>
+        <v>1.381371072454412</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.241650273842428</v>
@@ -12600,7 +12336,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.41358905254981</v>
+        <v>1.400799293512709</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.146641201767328</v>
@@ -12689,7 +12425,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.374526045442054</v>
+        <v>1.366991736290226</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.144746282929443</v>
@@ -12778,7 +12514,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.361377398581836</v>
+        <v>1.354021165326591</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.067146396680036</v>
@@ -12867,7 +12603,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.385926740415566</v>
+        <v>1.372922622299647</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.126427840610731</v>
@@ -12956,7 +12692,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.372406900240468</v>
+        <v>1.360060828887874</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.176620567050155</v>
@@ -13045,7 +12781,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.368079580256472</v>
+        <v>1.358708591823132</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.137662867693376</v>
@@ -13134,7 +12870,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.38090419351308</v>
+        <v>1.373410546659926</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.066613415839212</v>
@@ -13223,7 +12959,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.375243310677407</v>
+        <v>1.369356686250566</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.178010104989011</v>
@@ -13312,7 +13048,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.376361371330399</v>
+        <v>1.370197438764998</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.180218075731762</v>
@@ -13401,7 +13137,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.380351294601881</v>
+        <v>1.378550104324057</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.183577595099698</v>
@@ -13490,7 +13226,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.395529872320674</v>
+        <v>1.393982364588584</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.033273610209775</v>
@@ -13579,7 +13315,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.40753971131068</v>
+        <v>1.398104842416973</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.087000775454293</v>
@@ -13668,7 +13404,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.450330618230697</v>
+        <v>1.435308301674678</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.178214607721312</v>
@@ -13757,7 +13493,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.437946361357896</v>
+        <v>1.422078209094978</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.239819470714011</v>
@@ -13846,7 +13582,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.442393143594778</v>
+        <v>1.429683609887619</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.227928380039987</v>
@@ -13935,7 +13671,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.463295271840817</v>
+        <v>1.446824075546053</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.881070615372154</v>
@@ -14024,7 +13760,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.466906267525501</v>
+        <v>1.450272420207893</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.374793375145513</v>
@@ -14113,7 +13849,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.484900457200558</v>
+        <v>1.466427815497108</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.328414713405272</v>
@@ -14202,7 +13938,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.472037788879183</v>
+        <v>1.453893396838774</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.375303456996535</v>
@@ -14291,7 +14027,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.508931577851896</v>
+        <v>1.485882649795527</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.662782178939599</v>
@@ -14380,7 +14116,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.536501797096526</v>
+        <v>1.509397722016322</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.729045083509842</v>
@@ -14469,7 +14205,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.542712777734091</v>
+        <v>1.505582967581971</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.586569622115143</v>
@@ -14558,7 +14294,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.51339298535216</v>
+        <v>1.482131215424322</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.457508699721989</v>
@@ -14647,7 +14383,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.51563278302404</v>
+        <v>1.483602408659087</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.484246087129682</v>
@@ -14736,7 +14472,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.529676480988614</v>
+        <v>1.490886101910426</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.509177996805742</v>
@@ -14825,7 +14561,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.522958561175398</v>
+        <v>1.481205320902977</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.48328762795738</v>
@@ -14914,7 +14650,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.516964468854185</v>
+        <v>1.477016116941724</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.434149076496765</v>
@@ -15003,7 +14739,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.520830493427214</v>
+        <v>1.480484779162617</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.258718196574062</v>
@@ -15092,7 +14828,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.531596096707678</v>
+        <v>1.48807152481481</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.436753673018263</v>
@@ -15181,7 +14917,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.525212127659353</v>
+        <v>1.479810619756405</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.477285042677141</v>
@@ -15270,7 +15006,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.525534423487371</v>
+        <v>1.481854003549492</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.421185388437743</v>
@@ -15359,7 +15095,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.529653736180388</v>
+        <v>1.484160071264023</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.448007789083656</v>
@@ -15448,7 +15184,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.532947360649487</v>
+        <v>1.491380518517793</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.489395326260587</v>
@@ -15537,7 +15273,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.544384819907614</v>
+        <v>1.503180666419432</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.368292437470964</v>
@@ -15626,7 +15362,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.525207771283708</v>
+        <v>1.48636638858805</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.382909345274687</v>
@@ -15715,7 +15451,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.5150219921463</v>
+        <v>1.477521170641172</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.500347859702672</v>
@@ -15804,7 +15540,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.520720175674058</v>
+        <v>1.485960033455078</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.402717158881271</v>
@@ -15893,7 +15629,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.552772882915179</v>
+        <v>1.51525714546659</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.031744862062587</v>
@@ -15982,7 +15718,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.553361515811435</v>
+        <v>1.518371517079902</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.003937039885458</v>
@@ -16071,7 +15807,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.55926191314873</v>
+        <v>1.527845628474264</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.722338661311696</v>
@@ -16160,7 +15896,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.565830219597912</v>
+        <v>1.538579103486784</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.950420708599618</v>
@@ -16249,7 +15985,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.566398628118866</v>
+        <v>1.541870903677296</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.808027110676514</v>
@@ -16338,7 +16074,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568128333996938</v>
+        <v>1.547579211856207</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.573048943499737</v>
@@ -16427,7 +16163,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.556044263762047</v>
+        <v>1.533616477760557</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.900219646703192</v>
@@ -16516,7 +16252,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.556343333175199</v>
+        <v>1.538310858828513</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.843431414922499</v>
@@ -16605,7 +16341,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.547620735307757</v>
+        <v>1.530373088525796</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.771075516591439</v>
@@ -16694,7 +16430,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.567377101886957</v>
+        <v>1.544954669868197</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.636060349817496</v>
@@ -16783,7 +16519,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.570132258660513</v>
+        <v>1.546176104546916</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.604127301965161</v>
@@ -16872,7 +16608,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.573362668477029</v>
+        <v>1.55237784993982</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.855648401656854</v>
@@ -16961,7 +16697,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.586512904643146</v>
+        <v>1.570521499679851</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.770587322825663</v>
@@ -17050,7 +16786,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.577644349364995</v>
+        <v>1.566201042486267</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.804373148163744</v>
@@ -17139,7 +16875,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.580799123183986</v>
+        <v>1.568795224281747</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.772603065566167</v>
@@ -17228,7 +16964,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.551389697939236</v>
+        <v>1.543999716292401</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.66263177692537</v>
@@ -17317,7 +17053,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.544822272922397</v>
+        <v>1.538101605715914</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.69583703853566</v>
@@ -17406,7 +17142,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.524874799490249</v>
+        <v>1.516760818345059</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.555357203219132</v>
@@ -17495,7 +17231,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.509490035518541</v>
+        <v>1.502423999922023</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.779226685314525</v>
@@ -17584,7 +17320,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.513670253254962</v>
+        <v>1.511485757486368</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.749685416045906</v>
@@ -17673,7 +17409,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.511855559416293</v>
+        <v>1.511709250434541</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.724824296667199</v>
@@ -17762,7 +17498,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.528742356199269</v>
+        <v>1.524381053467535</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.661879069228256</v>
@@ -17851,7 +17587,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.510414631666725</v>
+        <v>1.506562694379156</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.599002357452388</v>
@@ -17940,7 +17676,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.50103258455168</v>
+        <v>1.497721227029367</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.857787797696157</v>
@@ -18029,7 +17765,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.467556737413941</v>
+        <v>1.46536484823633</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.828804379499692</v>
@@ -18118,7 +17854,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.445259609714936</v>
+        <v>1.436447307515207</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.438198092391379</v>
@@ -18207,7 +17943,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.419096206951021</v>
+        <v>1.413469627409272</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.537054108931145</v>
@@ -18296,7 +18032,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.39315557372883</v>
+        <v>1.382803703952168</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.413828936667417</v>
@@ -18385,7 +18121,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.380144934016652</v>
+        <v>1.364164064358615</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.552140490045795</v>
@@ -18474,7 +18210,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.372476697969286</v>
+        <v>1.356612427556545</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.62005841550412</v>
@@ -18563,7 +18299,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.370796393394657</v>
+        <v>1.35644386088798</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.439578676894601</v>
@@ -18652,7 +18388,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.380927517090078</v>
+        <v>1.365820177553583</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.290277988940974</v>
@@ -18741,7 +18477,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.384575259868948</v>
+        <v>1.370638855716554</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.427383128339172</v>
@@ -18830,7 +18566,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.389151869507379</v>
+        <v>1.377445386235549</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.549798365303506</v>
@@ -18919,7 +18655,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.396047200472094</v>
+        <v>1.381964841152048</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.478460454127806</v>
@@ -19008,7 +18744,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.39638897746853</v>
+        <v>1.382393771417674</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.635342516289934</v>
@@ -19097,7 +18833,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.389075514499443</v>
+        <v>1.377687396609568</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.446542120124334</v>
@@ -19186,7 +18922,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.405710476754262</v>
+        <v>1.396076119371942</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.507128974125204</v>
@@ -19275,7 +19011,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.409423793615719</v>
+        <v>1.399974616231591</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.64057403762813</v>
@@ -19364,7 +19100,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.434590973898363</v>
+        <v>1.42605252952961</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.438937804771955</v>
@@ -19453,7 +19189,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.401766467377807</v>
+        <v>1.399741991949071</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.207241414246625</v>
@@ -19542,7 +19278,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.422251611384969</v>
+        <v>1.415625781988329</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.046225193664182</v>
@@ -19631,7 +19367,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.435431092270976</v>
+        <v>1.42713562585948</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.139107760171097</v>
@@ -19720,7 +19456,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.450303658033769</v>
+        <v>1.445241996695984</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.159640623678954</v>
@@ -19809,7 +19545,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.452799386142981</v>
+        <v>1.446148195814916</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.109468642329299</v>
@@ -19898,7 +19634,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.465069254209889</v>
+        <v>1.453853159257298</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.245492055071955</v>
@@ -19987,7 +19723,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.459486331170068</v>
+        <v>1.443607384743034</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.2407688908396</v>
@@ -20273,7 +20009,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.51329576904014</v>
+        <v>1.479333535900129</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.701804409688769</v>
@@ -20362,7 +20098,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.512064675888691</v>
+        <v>1.477772142924338</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.48540430488764</v>
@@ -20451,7 +20187,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.532238901676144</v>
+        <v>1.492830275837336</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.71384183459053</v>
@@ -20540,7 +20276,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.549501097542643</v>
+        <v>1.515361343167156</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.60453788467918</v>
@@ -20629,7 +20365,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.533574201816734</v>
+        <v>1.510102072296571</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.424784019278</v>
@@ -20718,7 +20454,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.514573466144117</v>
+        <v>1.495649480134055</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.510880465327932</v>
@@ -20807,7 +20543,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.539751688788725</v>
+        <v>1.519945472444042</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.462466324300211</v>
@@ -20896,7 +20632,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.529800030548263</v>
+        <v>1.513418003486493</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.568906873915049</v>
@@ -20985,7 +20721,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.515108798526775</v>
+        <v>1.50176287574598</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.592717153812798</v>
@@ -21074,7 +20810,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.525795464717954</v>
+        <v>1.51345236083977</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.449851212069769</v>
@@ -21163,7 +20899,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522128080278443</v>
+        <v>1.509693078308445</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.722591366831722</v>
@@ -21252,7 +20988,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.520716128978719</v>
+        <v>1.510896108378089</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.630167332669146</v>
@@ -21341,7 +21077,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.543208469839945</v>
+        <v>1.535394484196246</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.783741862759265</v>
@@ -21430,7 +21166,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.560127494313138</v>
+        <v>1.552055851918208</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.591789891618335</v>
@@ -21519,7 +21255,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.56660670360523</v>
+        <v>1.560307549404909</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.750191187585761</v>
@@ -21608,7 +21344,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.577413007564061</v>
+        <v>1.569762676396653</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.564628396296989</v>
@@ -21697,7 +21433,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.573020990475229</v>
+        <v>1.564365888519548</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.702236652449724</v>
@@ -21786,7 +21522,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.566820094422895</v>
+        <v>1.559640142333487</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.819881030140601</v>
@@ -21875,7 +21611,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578746736653291</v>
+        <v>1.568302960776735</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.320960776624865</v>
@@ -21964,7 +21700,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574410888277998</v>
+        <v>1.564089534233778</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.883105712015856</v>
@@ -22053,7 +21789,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602428378258462</v>
+        <v>1.589059658747319</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.952570892834178</v>
@@ -22142,7 +21878,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.590561947311847</v>
+        <v>1.577707056401144</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.767764240983019</v>
@@ -22231,7 +21967,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606868017714682</v>
+        <v>1.594514230881682</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.043238904791073</v>
@@ -22320,7 +22056,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636003161578166</v>
+        <v>1.618048012670942</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.122180667390563</v>
@@ -22409,7 +22145,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633915475287434</v>
+        <v>1.614275051276194</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.187763934874102</v>
@@ -22498,7 +22234,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.618613523109592</v>
+        <v>1.601132421850772</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.982322238508759</v>
@@ -22587,7 +22323,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.618610839836713</v>
+        <v>1.599229125318237</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.147629787389031</v>
@@ -22676,7 +22412,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.619362135594738</v>
+        <v>1.601259636170188</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.13476569443434</v>
@@ -22765,7 +22501,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612942517393869</v>
+        <v>1.589289646995723</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.237435155580163</v>
@@ -22854,7 +22590,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.609970706972575</v>
+        <v>1.583937567761116</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.880157590054244</v>
@@ -22943,7 +22679,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.614267267437934</v>
+        <v>1.583846857651691</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.80471085608011</v>
@@ -23032,7 +22768,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.630989659663825</v>
+        <v>1.597380377183392</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.082883196336924</v>
@@ -23121,7 +22857,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.633731494712429</v>
+        <v>1.603951969411896</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.264202988968494</v>
@@ -23210,7 +22946,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.626032539984057</v>
+        <v>1.600216703864363</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.9465813436815</v>
@@ -23299,7 +23035,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.624347466223705</v>
+        <v>1.594601379833237</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.100811720531806</v>
@@ -23388,7 +23124,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.623986359213901</v>
+        <v>1.595536427146432</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.140051276537026</v>
@@ -23477,7 +23213,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.632085205550006</v>
+        <v>1.603087099907063</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.065169058883114</v>
@@ -23566,7 +23302,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.629384953205246</v>
+        <v>1.601788972108212</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.831179687116615</v>
@@ -23655,7 +23391,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616400419779801</v>
+        <v>1.59165471180573</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.248322974610539</v>
@@ -23744,7 +23480,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.62804651351213</v>
+        <v>1.600631333499384</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.134599980583277</v>
@@ -23833,7 +23569,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647001196065199</v>
+        <v>1.615281416517811</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.127075655621379</v>
@@ -23922,7 +23658,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.657690061098797</v>
+        <v>1.630999225802391</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.678629287171244</v>
@@ -24011,7 +23747,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65972284000706</v>
+        <v>1.624630499697567</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.417370109126655</v>
@@ -24100,7 +23836,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.651987101538581</v>
+        <v>1.625789353402395</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.694949716882023</v>
@@ -24189,7 +23925,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.655982273267857</v>
+        <v>1.629939700744591</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.579787552557476</v>
@@ -24278,7 +24014,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.668123737463999</v>
+        <v>1.651626201132723</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.922355910795092</v>
@@ -24367,7 +24103,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.659609989301105</v>
+        <v>1.641535959270632</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.143593236752105</v>
@@ -24456,7 +24192,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.666590893542655</v>
+        <v>1.651125884888246</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.005042733944057</v>
@@ -24545,7 +24281,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.673978982776854</v>
+        <v>1.651901121361676</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.963252077542664</v>
@@ -24634,7 +24370,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.683559853588217</v>
+        <v>1.665594207183638</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.31019043180598</v>
@@ -24723,7 +24459,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.67878643357946</v>
+        <v>1.659016122687977</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.15611480805587</v>
@@ -24812,7 +24548,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.684232229884422</v>
+        <v>1.664606515602043</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.206869557318435</v>
@@ -24901,7 +24637,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.684930035953295</v>
+        <v>1.660391965487117</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.136683320150718</v>
@@ -24990,7 +24726,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.689114465925413</v>
+        <v>1.664169278937269</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.282963772530403</v>
@@ -25079,7 +24815,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.68380657873895</v>
+        <v>1.661740823918709</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.519176040700738</v>
@@ -25168,7 +24904,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.671539532178323</v>
+        <v>1.650921820866</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.547769669043365</v>
@@ -25257,7 +24993,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.667958181860991</v>
+        <v>1.645301976055983</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.236515712385756</v>
@@ -25346,7 +25082,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.663340032709592</v>
+        <v>1.647643740747839</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.280717588096228</v>
@@ -25435,7 +25171,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.667896677906472</v>
+        <v>1.654789959019674</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.242007711191202</v>
@@ -25524,7 +25260,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.680741531706303</v>
+        <v>1.66502227150685</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.471510328893939</v>
@@ -25613,7 +25349,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.68104183989743</v>
+        <v>1.664829968898124</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.265584313404811</v>
@@ -25702,7 +25438,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.696028696527081</v>
+        <v>1.675251184181308</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.246594067604425</v>
@@ -25791,7 +25527,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.667814066294376</v>
+        <v>1.648914754929502</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.336155274149748</v>
@@ -25880,7 +25616,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.650286291836756</v>
+        <v>1.632424208630385</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.920349268974166</v>
@@ -25969,7 +25705,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.62513141097257</v>
+        <v>1.610199497588817</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.199918577241885</v>
@@ -26058,7 +25794,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.610942391509817</v>
+        <v>1.592773279315047</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.128456146200264</v>
@@ -26147,7 +25883,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.573330322240391</v>
+        <v>1.557196942606321</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.950610881341897</v>
@@ -26236,7 +25972,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.553124633827292</v>
+        <v>1.537226385722088</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.029676062427554</v>
@@ -26325,7 +26061,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.532222153908436</v>
+        <v>1.518249747402166</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.891198681776894</v>
@@ -26414,7 +26150,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.527752058808293</v>
+        <v>1.511702651381132</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.929490880286686</v>
@@ -26503,7 +26239,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.525901231259924</v>
+        <v>1.514782063222625</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.020549849367685</v>
@@ -26592,7 +26328,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.52296838055313</v>
+        <v>1.510221358755939</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.620780037694501</v>
@@ -26681,7 +26417,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.524375458386757</v>
+        <v>1.51169077789763</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.188714553181388</v>
@@ -26770,7 +26506,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.524514492968444</v>
+        <v>1.503855129363863</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.00395033159186</v>
@@ -26859,7 +26595,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.530137748125324</v>
+        <v>1.506199568897949</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.091211872918845</v>
@@ -26948,7 +26684,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.527666556480364</v>
+        <v>1.504205174579832</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.870589549101171</v>
@@ -27037,7 +26773,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.523156115422745</v>
+        <v>1.496012076311641</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.602505887087102</v>
@@ -27126,7 +26862,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.532541930319844</v>
+        <v>1.505602286327589</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.8279623955104</v>
@@ -27215,7 +26951,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.532206040690173</v>
+        <v>1.502806332787725</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.872699068443935</v>
@@ -27304,7 +27040,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.548459971138235</v>
+        <v>1.515166346820104</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.678090747198198</v>
@@ -27393,7 +27129,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.538684338214524</v>
+        <v>1.510215604864874</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.580049381971669</v>
@@ -27482,7 +27218,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.560930406063845</v>
+        <v>1.5228491596338</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.425119280768944</v>
@@ -27571,7 +27307,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.575804767371501</v>
+        <v>1.536512820012688</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.504458806770633</v>
@@ -27660,7 +27396,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.587879417418796</v>
+        <v>1.54777486202695</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.609202302632732</v>
@@ -27749,7 +27485,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.602613421055903</v>
+        <v>1.559423481902865</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.581666879362797</v>
@@ -27838,7 +27574,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.603161698280477</v>
+        <v>1.556487534897079</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.640205047856651</v>
@@ -27927,7 +27663,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.590989782348737</v>
+        <v>1.543552417260756</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.714941471486947</v>
@@ -28213,7 +27949,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.476212187973119</v>
+        <v>1.469405079145214</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.381321800058872</v>
@@ -28302,7 +28038,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.474897363097409</v>
+        <v>1.471398729600416</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.347250531860077</v>
@@ -28391,7 +28127,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.508242020296544</v>
+        <v>1.501184529126569</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.347296066972849</v>
@@ -28480,7 +28216,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.514660524499927</v>
+        <v>1.514926843350293</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.328968903381661</v>
@@ -28569,7 +28305,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.484862553137293</v>
+        <v>1.489683597908617</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.241786412324561</v>
@@ -28658,7 +28394,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.47598078628829</v>
+        <v>1.484638360303621</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.177824394366464</v>
@@ -28747,7 +28483,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.503840747764526</v>
+        <v>1.516411661752613</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.23236632355527</v>
@@ -28836,7 +28572,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.476905906380688</v>
+        <v>1.494820842478045</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.322171012466368</v>
@@ -28925,7 +28661,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.46219026472087</v>
+        <v>1.479480851606785</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.364209639976646</v>
@@ -29014,7 +28750,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.480802962143006</v>
+        <v>1.501239423500481</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.196811856112539</v>
@@ -29103,7 +28839,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.476086134725416</v>
+        <v>1.494912078232222</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.367486418843407</v>
@@ -29192,7 +28928,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.483843893132867</v>
+        <v>1.507419841661956</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.354202988293723</v>
@@ -29281,7 +29017,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.512320975000869</v>
+        <v>1.534943440998938</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.311746656997801</v>
@@ -29370,7 +29106,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.529383636666133</v>
+        <v>1.550969272374678</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.255645682114042</v>
@@ -29459,7 +29195,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.546941084782824</v>
+        <v>1.566417546142204</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.272462823912095</v>
@@ -29548,7 +29284,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.593953119498531</v>
+        <v>1.608202787351445</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.449748350109351</v>
@@ -29637,7 +29373,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581925511787357</v>
+        <v>1.599621686864702</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.435998600888538</v>
@@ -29726,7 +29462,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.568290856310641</v>
+        <v>1.588930091319478</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.444008614753664</v>
@@ -29815,7 +29551,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596947453568786</v>
+        <v>1.616552377670034</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.104020414449852</v>
@@ -29904,7 +29640,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.595799283805604</v>
+        <v>1.613388854638334</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.626846401586099</v>
@@ -29993,7 +29729,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.621686733529192</v>
+        <v>1.63547816710538</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.441347581749903</v>
@@ -30082,7 +29818,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.610921649869804</v>
+        <v>1.618187558598602</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.496477668008995</v>
@@ -30171,7 +29907,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.656574952117546</v>
+        <v>1.657668598324153</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.699417352794081</v>
@@ -30260,7 +29996,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.685191943016656</v>
+        <v>1.687006953569729</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.707679047799613</v>
@@ -30349,7 +30085,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.693606739358158</v>
+        <v>1.691092576848876</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.65143755543695</v>
@@ -30438,7 +30174,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.663196908446062</v>
+        <v>1.662306691410512</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.714469503572445</v>
@@ -30527,7 +30263,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.650935281539266</v>
+        <v>1.639876439248019</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.631955044320714</v>
@@ -30616,7 +30352,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.647882116214751</v>
+        <v>1.628948789625622</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.733296513038125</v>
@@ -30705,7 +30441,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.631169290861801</v>
+        <v>1.60774926077965</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.723253485789101</v>
@@ -30794,7 +30530,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.616319899273761</v>
+        <v>1.58790638267718</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.609004732884807</v>
@@ -30883,7 +30619,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.623956725777271</v>
+        <v>1.593238731251587</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.38675912928451</v>
@@ -30972,7 +30708,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.64173548464282</v>
+        <v>1.609522951605673</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.621628065050232</v>
@@ -31061,7 +30797,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.642228755846885</v>
+        <v>1.614245912868035</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.692687751336526</v>
@@ -31150,7 +30886,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.641477738706171</v>
+        <v>1.614699914958952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.639452661533519</v>
@@ -31239,7 +30975,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.650802855700351</v>
+        <v>1.624296566365921</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.483413885105354</v>
@@ -31328,7 +31064,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.65841064723905</v>
+        <v>1.633541062955773</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.70586530275246</v>
@@ -31417,7 +31153,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.663144327476873</v>
+        <v>1.637022454354079</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.617461499617997</v>
@@ -31506,7 +31242,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.649948342949732</v>
+        <v>1.624081841144089</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.56701056190593</v>
@@ -31595,7 +31331,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.642702331934848</v>
+        <v>1.617257602077587</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.739440519539838</v>
@@ -31684,7 +31420,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.649847303568769</v>
+        <v>1.623766757230674</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.700875303767141</v>
@@ -31773,7 +31509,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.685399055372616</v>
+        <v>1.658088089604145</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.317345619845834</v>
@@ -31862,7 +31598,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.699954745414063</v>
+        <v>1.683764654404697</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.170476920437628</v>
@@ -31951,7 +31687,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.7097915058888</v>
+        <v>1.69710779531037</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.386996447420602</v>
@@ -32040,7 +31776,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711978132598528</v>
+        <v>1.700952145581978</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.026959734112547</v>
@@ -32129,7 +31865,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.714266330969587</v>
+        <v>1.706847176067422</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.213240167668946</v>
@@ -32218,7 +31954,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721028696143967</v>
+        <v>1.719514907928201</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.116903283009206</v>
@@ -32307,7 +32043,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.712529355806875</v>
+        <v>1.714136398891632</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.16372022351184</v>
@@ -32396,7 +32132,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.714638122896341</v>
+        <v>1.716856868592955</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.322652212963969</v>
@@ -32485,7 +32221,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.71315930404707</v>
+        <v>1.714137963262415</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.352308753447249</v>
@@ -32574,7 +32310,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.714198231482993</v>
+        <v>1.711127041033818</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.974480893563938</v>
@@ -32663,7 +32399,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.704870343283914</v>
+        <v>1.697520412807487</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.298530063797249</v>
@@ -32752,7 +32488,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.713033972160581</v>
+        <v>1.711126847971598</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.123320057741314</v>
@@ -32841,7 +32577,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.733500799523166</v>
+        <v>1.729292558464157</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.233986897339144</v>
@@ -32930,7 +32666,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.735083649539988</v>
+        <v>1.72916827055105</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.19540375696144</v>
@@ -33019,7 +32755,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.731876938139966</v>
+        <v>1.72912803910598</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.276548406751299</v>
@@ -33108,7 +32844,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.71261559106125</v>
+        <v>1.711317863340016</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.265843692432589</v>
@@ -33197,7 +32933,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.704748391895386</v>
+        <v>1.700783924352631</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.266106214235019</v>
@@ -33286,7 +33022,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.693810084050563</v>
+        <v>1.69301488660364</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.165748260286511</v>
@@ -33375,7 +33111,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.698504228370126</v>
+        <v>1.69971503929367</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.117901146240351</v>
@@ -33464,7 +33200,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.708222843653073</v>
+        <v>1.706473439981362</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.015400360311504</v>
@@ -33553,7 +33289,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.710513133752471</v>
+        <v>1.710835886958797</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.201613641419055</v>
@@ -33642,7 +33378,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.706778421657305</v>
+        <v>1.701369193180857</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.070129947368897</v>
@@ -33731,7 +33467,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.684400671108137</v>
+        <v>1.677547595047087</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.976029259552821</v>
@@ -33820,7 +33556,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.672517546399899</v>
+        <v>1.667876814733412</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.342015476110205</v>
@@ -33909,7 +33645,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.641926375264508</v>
+        <v>1.64377496479871</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.190060508095164</v>
@@ -33998,7 +33734,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.616323102922383</v>
+        <v>1.612536173154568</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.826379339380627</v>
@@ -34087,7 +33823,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.560537895411269</v>
+        <v>1.562584445325699</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.725546593203155</v>
@@ -34176,7 +33912,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.520810000331379</v>
+        <v>1.523149546112719</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.68168791478551</v>
@@ -34265,7 +34001,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.493788029935692</v>
+        <v>1.496202254557628</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.685143852429055</v>
@@ -34354,7 +34090,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.494604353249207</v>
+        <v>1.493760198323016</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.663565875647522</v>
@@ -34443,7 +34179,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.48961326212618</v>
+        <v>1.492679953840113</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.635050319029712</v>
@@ -34532,7 +34268,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.492203673879535</v>
+        <v>1.495170101815742</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.368947053994395</v>
@@ -34621,7 +34357,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.486036782385996</v>
+        <v>1.485748873502263</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.648399681741134</v>
@@ -34710,7 +34446,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.480840649492777</v>
+        <v>1.482376331470412</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.748075865647841</v>
@@ -34799,7 +34535,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.492258877508003</v>
+        <v>1.493307827462566</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.670533004096151</v>
@@ -34888,7 +34624,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.487020023863028</v>
+        <v>1.486134585485747</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.580966338238255</v>
@@ -34977,7 +34713,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.477936395366785</v>
+        <v>1.476381201131782</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.44788919826931</v>
@@ -35066,7 +34802,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.493440791164096</v>
+        <v>1.493354193868527</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.612320644171394</v>
@@ -35155,7 +34891,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.506880472692472</v>
+        <v>1.501184877160732</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.657207168621168</v>
@@ -35244,7 +34980,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.531502056988295</v>
+        <v>1.522776320296071</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.501306048005491</v>
@@ -35333,7 +35069,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.495841939358364</v>
+        <v>1.500134662041821</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.277988606469358</v>
@@ -35422,7 +35158,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.538844236774649</v>
+        <v>1.536776419982836</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.189227803985108</v>
@@ -35511,7 +35247,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.553361110752351</v>
+        <v>1.550734173783867</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.248351097872332</v>
@@ -35600,7 +35336,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.575120279887087</v>
+        <v>1.57280581043266</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.367067390371967</v>
@@ -35689,7 +35425,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.576715445490234</v>
+        <v>1.568903408014102</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.200955379319822</v>
@@ -35778,7 +35514,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.57666265443665</v>
+        <v>1.565332555912076</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.277266091873249</v>
@@ -35867,7 +35603,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.568077947205428</v>
+        <v>1.55355803819666</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.354626905818243</v>
@@ -36153,7 +35889,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.389150785810708</v>
+        <v>1.369986770158518</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.250802213000686</v>
@@ -36242,7 +35978,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.401780702341238</v>
+        <v>1.385331976989601</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.221697901808915</v>
@@ -36331,7 +36067,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.408551775902767</v>
+        <v>1.388873292168682</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.142194030474729</v>
@@ -36420,7 +36156,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.417932042595671</v>
+        <v>1.404869149615606</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.143457228569434</v>
@@ -36509,7 +36245,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.382727925057836</v>
+        <v>1.372036667810122</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.135836660856683</v>
@@ -36598,7 +36334,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.374055577522812</v>
+        <v>1.364111809172173</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.102206053611455</v>
@@ -36687,7 +36423,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39207359831026</v>
+        <v>1.385849036115029</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.090429570248686</v>
@@ -36776,7 +36512,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.377200117238284</v>
+        <v>1.374985547633637</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.153583687516831</v>
@@ -36865,7 +36601,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.365834879406946</v>
+        <v>1.363699062584548</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.192523661008491</v>
@@ -36954,7 +36690,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.381358849343403</v>
+        <v>1.379452513890624</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.063830810334095</v>
@@ -37043,7 +36779,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.374493557759926</v>
+        <v>1.37328159588621</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.150134259938189</v>
@@ -37132,7 +36868,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.373196235814229</v>
+        <v>1.374732541062346</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.153424207791755</v>
@@ -37221,7 +36957,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.386479839924692</v>
+        <v>1.385033543822723</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.093019012011629</v>
@@ -37310,7 +37046,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.402051396583062</v>
+        <v>1.398685242956135</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.056196188732669</v>
@@ -37399,7 +37135,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.420731119613431</v>
+        <v>1.411490794873156</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.06473361613162</v>
@@ -37488,7 +37224,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.460052754471843</v>
+        <v>1.449417241332589</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.206221893276947</v>
@@ -37577,7 +37313,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.438291613771107</v>
+        <v>1.428618730740361</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.179488711691506</v>
@@ -37666,7 +37402,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.437292568977082</v>
+        <v>1.427932612008093</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.220620726574068</v>
@@ -37755,7 +37491,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.457849766212191</v>
+        <v>1.454262230625286</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.915355517787557</v>
@@ -37844,7 +37580,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.457538909289472</v>
+        <v>1.453840766783727</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.25791116830951</v>
@@ -37933,7 +37669,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.467622664150029</v>
+        <v>1.459038129131227</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.245419433035335</v>
@@ -38022,7 +37758,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.461977391219591</v>
+        <v>1.452165692641691</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.282637403427492</v>
@@ -38111,7 +37847,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.494252487370417</v>
+        <v>1.480225689462178</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.338285134520199</v>
@@ -38200,7 +37936,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.507933897405088</v>
+        <v>1.49780701741428</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.338833488810856</v>
@@ -38289,7 +38025,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.51855035032432</v>
+        <v>1.502661844476212</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.302902175197026</v>
@@ -38378,7 +38114,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.495844902077008</v>
+        <v>1.482024644402323</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.42621843967583</v>
@@ -38467,7 +38203,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.501233241648702</v>
+        <v>1.482015686780135</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.405325189614111</v>
@@ -38556,7 +38292,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.513327715323282</v>
+        <v>1.489208889571636</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.392712652848151</v>
@@ -38645,7 +38381,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.498434293937987</v>
+        <v>1.470220772661776</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.469833275638306</v>
@@ -38734,7 +38470,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.490507121864246</v>
+        <v>1.458369535546498</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.320348373154061</v>
@@ -38823,7 +38559,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.498392743108638</v>
+        <v>1.465079508097331</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.227744589999409</v>
@@ -38912,7 +38648,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.507951807461551</v>
+        <v>1.473755087929278</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.382613591569305</v>
@@ -39001,7 +38737,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.502770489738376</v>
+        <v>1.470243522005886</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.493230377366328</v>
@@ -39090,7 +38826,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.511502141038344</v>
+        <v>1.475833253299617</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.357496619041882</v>
@@ -39179,7 +38915,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.515499332584288</v>
+        <v>1.478372241996761</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.246805753438449</v>
@@ -39268,7 +39004,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.526065643656116</v>
+        <v>1.49288687099637</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.490204093124546</v>
@@ -39357,7 +39093,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.532465946941262</v>
+        <v>1.494207806993475</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.465811798348948</v>
@@ -39446,7 +39182,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.528394717654147</v>
+        <v>1.491521452468195</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.3072839370586</v>
@@ -39535,7 +39271,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.515122966595429</v>
+        <v>1.477764208699545</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.493150481907597</v>
@@ -39624,7 +39360,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.506398910628457</v>
+        <v>1.473211645441778</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.460837519507764</v>
@@ -39713,7 +39449,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.537906600473638</v>
+        <v>1.50332996577148</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.146926461913034</v>
@@ -39802,7 +39538,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.529303632489184</v>
+        <v>1.498933047459799</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.944236056567595</v>
@@ -39891,7 +39627,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.529414243033548</v>
+        <v>1.499908621057678</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.883584847901101</v>
@@ -39980,7 +39716,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.535434509589218</v>
+        <v>1.510502668514005</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.609557962330151</v>
@@ -40069,7 +39805,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.530946334797363</v>
+        <v>1.509827315214032</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.660049346101577</v>
@@ -40158,7 +39894,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.537066108830314</v>
+        <v>1.519336352206287</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.699135297084738</v>
@@ -40247,7 +39983,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.529398579520597</v>
+        <v>1.506891948645286</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.672311858028383</v>
@@ -40336,7 +40072,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.528279702893987</v>
+        <v>1.505638800515883</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.813050472131255</v>
@@ -40425,7 +40161,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.523703546945524</v>
+        <v>1.496597651464888</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.759705198315896</v>
@@ -40514,7 +40250,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.537985201545723</v>
+        <v>1.506369999033074</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.641129490155404</v>
@@ -40603,7 +40339,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532801225422658</v>
+        <v>1.50372657307529</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.75034900462635</v>
@@ -40692,7 +40428,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.535248820072064</v>
+        <v>1.507992050108482</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.691548608126418</v>
@@ -40781,7 +40517,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.540514366701395</v>
+        <v>1.512027881534479</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.758280007304771</v>
@@ -40870,7 +40606,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.54870906681987</v>
+        <v>1.519323743452218</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.757611186990409</v>
@@ -40959,7 +40695,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.556432226500807</v>
+        <v>1.52503835306597</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.764311342447414</v>
@@ -41048,7 +40784,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.531937240925053</v>
+        <v>1.498288580212165</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.760713554068029</v>
@@ -41137,7 +40873,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.54077361317455</v>
+        <v>1.510119307415505</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.713138708011189</v>
@@ -41226,7 +40962,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.538507029050598</v>
+        <v>1.508364880798818</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.713782845869663</v>
@@ -41315,7 +41051,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.537171439097704</v>
+        <v>1.511234450722005</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.775173053819173</v>
@@ -41404,7 +41140,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.539334389809794</v>
+        <v>1.518125932130617</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.759017180323788</v>
@@ -41493,7 +41229,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.535640543088129</v>
+        <v>1.51729697124971</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.718409461153506</v>
@@ -41582,7 +41318,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.54906965931898</v>
+        <v>1.531813835473943</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.607649644886798</v>
@@ -41671,7 +41407,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.530461455334386</v>
+        <v>1.516169412979612</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.66557774422636</v>
@@ -41760,7 +41496,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.532795885346071</v>
+        <v>1.521516913171666</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.751664420136418</v>
@@ -41849,7 +41585,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.501299399101199</v>
+        <v>1.498660264420505</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.813628604220553</v>
@@ -41938,7 +41674,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.480175846009488</v>
+        <v>1.467122307520747</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.565665590367671</v>
@@ -42027,7 +41763,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.437241469578129</v>
+        <v>1.436046942499706</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.364441535556097</v>
@@ -42116,7 +41852,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.409272179842549</v>
+        <v>1.401488593182192</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.379830712216553</v>
@@ -42205,7 +41941,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.382585132788255</v>
+        <v>1.373486508626416</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.431378807780819</v>
@@ -42294,7 +42030,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.387533529084013</v>
+        <v>1.376852754974139</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.470091558869931</v>
@@ -42383,7 +42119,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.38772485990144</v>
+        <v>1.381876594074617</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.331736851356638</v>
@@ -42472,7 +42208,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.390933862422415</v>
+        <v>1.383760389565171</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.241632556192998</v>
@@ -42561,7 +42297,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.382632448651052</v>
+        <v>1.374641432607337</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.446633801931828</v>
@@ -42650,7 +42386,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.379711859763846</v>
+        <v>1.371251376335805</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.499996376268032</v>
@@ -42739,7 +42475,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.390450337109404</v>
+        <v>1.380937896832066</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.491730768601224</v>
@@ -42828,7 +42564,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.389065144044653</v>
+        <v>1.379685584376662</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.422662856727424</v>
@@ -42917,7 +42653,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.384325931110055</v>
+        <v>1.373220167606814</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.253770039140306</v>
@@ -43006,7 +42742,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.398348266703171</v>
+        <v>1.386820918622786</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.463693380444353</v>
@@ -43095,7 +42831,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.404169490355797</v>
+        <v>1.386415881401073</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.471898480008539</v>
@@ -43184,7 +42920,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.424189422697489</v>
+        <v>1.406022606961775</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.274983578808714</v>
@@ -43273,7 +43009,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.391543796937083</v>
+        <v>1.381264090249462</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.149463557715563</v>
@@ -43362,7 +43098,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.423553468714082</v>
+        <v>1.404929937473894</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.040932655008653</v>
@@ -43451,7 +43187,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.442099807080418</v>
+        <v>1.423224790750419</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.107170211917068</v>
@@ -43540,7 +43276,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.457329818199985</v>
+        <v>1.439796161803194</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.187250111726576</v>
@@ -43629,7 +43365,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.458337109850086</v>
+        <v>1.434248022146619</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.106507959583785</v>
@@ -43718,7 +43454,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.453541408091086</v>
+        <v>1.427992048334381</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.139772640729888</v>
@@ -43807,7 +43543,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.441444008744468</v>
+        <v>1.417128238209168</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.252980140303277</v>
@@ -44093,7 +43829,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.527576648955837</v>
+        <v>1.544446150428972</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.762164675015725</v>
@@ -44182,7 +43918,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.566243454730616</v>
+        <v>1.590710526383379</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.673873267297355</v>
@@ -44271,7 +44007,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.596078459287928</v>
+        <v>1.627386152546789</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.621600496787762</v>
@@ -44360,7 +44096,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599338936689389</v>
+        <v>1.630819405904029</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.432961483000323</v>
@@ -44449,7 +44185,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.596432026213689</v>
+        <v>1.631155796721545</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.536656597091549</v>
@@ -44538,7 +44274,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.58791088050105</v>
+        <v>1.622938959439195</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.440161423805722</v>
@@ -44627,7 +44363,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.613922654192049</v>
+        <v>1.652722745026489</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.523164056079696</v>
@@ -44716,7 +44452,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59524999381607</v>
+        <v>1.63569836903691</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.599657194447926</v>
@@ -44805,7 +44541,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.600249894149468</v>
+        <v>1.641583721323415</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.509676525009007</v>
@@ -44894,7 +44630,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.606930845214717</v>
+        <v>1.649477653243837</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.458127587447965</v>
@@ -44983,7 +44719,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607849188600403</v>
+        <v>1.648654227432928</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.645609300631104</v>
@@ -45072,7 +44808,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609144879816856</v>
+        <v>1.653014522638955</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.653558555562477</v>
@@ -45161,7 +44897,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.627119987357165</v>
+        <v>1.669494596562408</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.514958867601524</v>
@@ -45250,7 +44986,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.640051134081544</v>
+        <v>1.679545416495778</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.434279704296715</v>
@@ -45339,7 +45075,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641008584268518</v>
+        <v>1.675343722355009</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.599334201820107</v>
@@ -45428,7 +45164,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.683041862736737</v>
+        <v>1.713922131038183</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.671965676251143</v>
@@ -45517,7 +45253,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658547778641153</v>
+        <v>1.688991832909874</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.666576492929441</v>
@@ -45606,7 +45342,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.637530477486214</v>
+        <v>1.672089952321476</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.6604662436625</v>
@@ -45695,7 +45431,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.633766935215192</v>
+        <v>1.667111019986092</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.238941349270904</v>
@@ -45784,7 +45520,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.62956940090618</v>
+        <v>1.666339009514829</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.536359478900293</v>
@@ -45873,7 +45609,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.644629545958605</v>
+        <v>1.683310180159948</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.545402244000442</v>
@@ -45962,7 +45698,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.619755571671781</v>
+        <v>1.656969895876217</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.668970447775954</v>
@@ -46051,7 +45787,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.634716088596696</v>
+        <v>1.669727063781369</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.969201797159415</v>
@@ -46140,7 +45876,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.642089814019382</v>
+        <v>1.679106188358916</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.946974235390899</v>
@@ -46229,7 +45965,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657958849811063</v>
+        <v>1.68937570240118</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.827728679043793</v>
@@ -46318,7 +46054,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.630974610595298</v>
+        <v>1.661394085930232</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.724977964423601</v>
@@ -46407,7 +46143,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.62150592255125</v>
+        <v>1.651186965088131</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.884482616627165</v>
@@ -46496,7 +46232,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.627477038795652</v>
+        <v>1.653389578017399</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.859834173854493</v>
@@ -46585,7 +46321,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.605877718388815</v>
+        <v>1.627761372882654</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.711992721984819</v>
@@ -46674,7 +46410,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.611757046750903</v>
+        <v>1.633663625600169</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.822573384498467</v>
@@ -46763,7 +46499,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.618978564401364</v>
+        <v>1.635392362455515</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.87353146502285</v>
@@ -46852,7 +46588,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.644022397145517</v>
+        <v>1.661295165035346</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.77919032455486</v>
@@ -46941,7 +46677,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634067936130197</v>
+        <v>1.653908704230503</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.911490008974824</v>
@@ -47030,7 +46766,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.663962954436596</v>
+        <v>1.683327181338159</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.947374456299376</v>
@@ -47119,7 +46855,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.648678328043716</v>
+        <v>1.666032614543791</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.832263768411054</v>
@@ -47208,7 +46944,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.663000887773516</v>
+        <v>1.678883332663324</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.91929455085954</v>
@@ -47297,7 +47033,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.668455009601403</v>
+        <v>1.684659813128761</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.083239796300957</v>
@@ -47386,7 +47122,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.681459591319603</v>
+        <v>1.695602511586515</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.879443849939878</v>
@@ -47475,7 +47211,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.645824817021756</v>
+        <v>1.660800573403486</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.882233341577987</v>
@@ -47564,7 +47300,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623104463199518</v>
+        <v>1.648111076112796</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.79280004961786</v>
@@ -47653,7 +47389,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.655047991144704</v>
+        <v>1.684524882587066</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.828454578438933</v>
@@ -47742,7 +47478,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.658816336959417</v>
+        <v>1.691195312955229</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.784243469182802</v>
@@ -47831,7 +47567,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.656667423310568</v>
+        <v>1.693171686217034</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.801043945201091</v>
@@ -47920,7 +47656,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.644163798017557</v>
+        <v>1.683303185515478</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.944908502477954</v>
@@ -48009,7 +47745,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.633363158432964</v>
+        <v>1.67491745002769</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.98425757174723</v>
@@ -48098,7 +47834,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.6467537783091</v>
+        <v>1.691088563909732</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.636098727494151</v>
@@ -48187,7 +47923,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.637906835857993</v>
+        <v>1.679287236548984</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.673939816534781</v>
@@ -48276,7 +48012,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.661191663625464</v>
+        <v>1.703622352710141</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.712596323574662</v>
@@ -48365,7 +48101,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.629214295762215</v>
+        <v>1.668451604824332</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.820390876354188</v>
@@ -48454,7 +48190,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.642785373109188</v>
+        <v>1.682006105832967</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.817109402485069</v>
@@ -48543,7 +48279,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.635275846417618</v>
+        <v>1.671335333119701</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.62386226821018</v>
@@ -48632,7 +48368,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.639017533944693</v>
+        <v>1.671692738063685</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.735414215072822</v>
@@ -48721,7 +48457,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.64885801393346</v>
+        <v>1.685226228648128</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.730644494340288</v>
@@ -48810,7 +48546,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.668233768780303</v>
+        <v>1.702621417996624</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.699308414246242</v>
@@ -48899,7 +48635,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.700730169684238</v>
+        <v>1.725898060656003</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.993031472861533</v>
@@ -48988,7 +48724,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.67293230188385</v>
+        <v>1.704015170651313</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.041692262185077</v>
@@ -49077,7 +48813,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.669852977928576</v>
+        <v>1.700126588609665</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.95918011449684</v>
@@ -49166,7 +48902,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.664480833878307</v>
+        <v>1.693625933199446</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.046722544895453</v>
@@ -49255,7 +48991,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.686494823543589</v>
+        <v>1.711957851881602</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.703214895107014</v>
@@ -49344,7 +49080,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.695581526872292</v>
+        <v>1.723186981421451</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.071702561447761</v>
@@ -49433,7 +49169,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.693196461301169</v>
+        <v>1.725942715178363</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.161089358750998</v>
@@ -49522,7 +49258,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.694515211271366</v>
+        <v>1.731993879446758</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.058562819151912</v>
@@ -49611,7 +49347,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.687169099067272</v>
+        <v>1.720031311756877</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.449493201496236</v>
@@ -49700,7 +49436,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.711610901388733</v>
+        <v>1.741341672516785</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.035505255781845</v>
@@ -49789,7 +49525,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.678689592529803</v>
+        <v>1.71449205240466</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.986161870266424</v>
@@ -49878,7 +49614,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.66661385576138</v>
+        <v>1.696249076555924</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.144557082751094</v>
@@ -49967,7 +49703,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.636802993289677</v>
+        <v>1.678421901331845</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.796101581345749</v>
@@ -50056,7 +49792,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.605517158623063</v>
+        <v>1.640331861756043</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.723246211610843</v>
@@ -50145,7 +49881,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.600617072150039</v>
+        <v>1.638662097022428</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.907288088398243</v>
@@ -50234,7 +49970,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.597561640530558</v>
+        <v>1.633173617919344</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.016960142277084</v>
@@ -50323,7 +50059,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.612432396497504</v>
+        <v>1.647395028656195</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.715489834710036</v>
@@ -50412,7 +50148,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.611384729320916</v>
+        <v>1.645608274418976</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.685152433241154</v>
@@ -50501,7 +50237,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.606927322903638</v>
+        <v>1.639210415154159</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.987778611033329</v>
@@ -50590,7 +50326,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.608666535283853</v>
+        <v>1.641807073668946</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.0827336417804</v>
@@ -50679,7 +50415,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.586987037405031</v>
+        <v>1.617297674972871</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.788839013431892</v>
@@ -50768,7 +50504,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.571148406579923</v>
+        <v>1.600925688094804</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.752959438765879</v>
@@ -50857,7 +50593,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.562950170732547</v>
+        <v>1.588653394937951</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.682613364441019</v>
@@ -50946,7 +50682,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.574311497480368</v>
+        <v>1.600367888626862</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.803030444758472</v>
@@ -51035,7 +50771,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.568658025856999</v>
+        <v>1.592961264520681</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.829227845710797</v>
@@ -51124,7 +50860,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.596008823736562</v>
+        <v>1.619452357880458</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.676166129612207</v>
@@ -51213,7 +50949,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.566311775992411</v>
+        <v>1.596085579672655</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.586095045973148</v>
@@ -51302,7 +51038,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.569561047036287</v>
+        <v>1.593351415261281</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.353276089980911</v>
@@ -51391,7 +51127,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.560141110478995</v>
+        <v>1.586270683777249</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.446077472699762</v>
@@ -51480,7 +51216,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.544714208111011</v>
+        <v>1.56739996287492</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.484906823698585</v>
@@ -51569,7 +51305,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.531760226416256</v>
+        <v>1.5532678250949</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.465898934884861</v>
@@ -51658,7 +51394,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.515754646428742</v>
+        <v>1.535163018494401</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.501942964968042</v>
@@ -51747,7 +51483,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.50936716683924</v>
+        <v>1.525855444464843</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.606596890339484</v>
